--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>97527.64372824669</v>
+        <v>99353.99717311266</v>
       </c>
       <c r="C2">
-        <v>204593.9608350844</v>
+        <v>206622.7545377452</v>
       </c>
       <c r="D2">
-        <v>45881.37113222279</v>
+        <v>46330.2991882415</v>
       </c>
       <c r="E2">
-        <v>104538.1679014077</v>
+        <v>105194.1911738916</v>
       </c>
       <c r="F2">
-        <v>33488.8963246869</v>
+        <v>33883.54227742487</v>
       </c>
       <c r="G2">
-        <v>63644.56079761537</v>
+        <v>64539.35110986696</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>107896.3056349428</v>
+        <v>108328.5203483355</v>
       </c>
       <c r="M2">
         <v>475933</v>
       </c>
       <c r="N2">
-        <v>-1061956.232590057</v>
+        <v>-1115943.101521906</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>144601.4702926023</v>
+        <v>143847.151951513</v>
       </c>
       <c r="C3">
-        <v>1126890.310147116</v>
+        <v>1136810.178640253</v>
       </c>
       <c r="D3">
-        <v>183141.1086109384</v>
+        <v>169470.6023616043</v>
       </c>
       <c r="E3">
-        <v>469506.9846069822</v>
+        <v>463739.6429198541</v>
       </c>
       <c r="F3">
-        <v>331942.9962656709</v>
+        <v>331821.986958042</v>
       </c>
       <c r="G3">
-        <v>58655.02935517597</v>
+        <v>58564.92369630033</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>457892.8199439287</v>
+        <v>457013.976539114</v>
       </c>
       <c r="M3">
         <v>1918002</v>
       </c>
       <c r="N3">
-        <v>1997838.348634922</v>
+        <v>2122598.277787185</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>122054.1387318061</v>
+        <v>122758.2999097182</v>
       </c>
       <c r="C4">
-        <v>965619.1789813826</v>
+        <v>969626.3058711978</v>
       </c>
       <c r="D4">
-        <v>125009.32946463</v>
+        <v>126320.1819531555</v>
       </c>
       <c r="E4">
-        <v>422062.7470352742</v>
+        <v>437086.1357502917</v>
       </c>
       <c r="F4">
-        <v>326755.7385078638</v>
+        <v>327559.48397081</v>
       </c>
       <c r="G4">
-        <v>16854.65971949256</v>
+        <v>16943.774205208</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>394322.7150111512</v>
+        <v>394970.214485343</v>
       </c>
       <c r="M4">
         <v>1904364</v>
       </c>
       <c r="N4">
-        <v>-1014358.034835111</v>
+        <v>-1041429.656400205</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1054465.474239465</v>
+        <v>1065774.33626986</v>
       </c>
       <c r="C5">
-        <v>8953247.770549288</v>
+        <v>8890057.260563912</v>
       </c>
       <c r="D5">
-        <v>473668.7845335528</v>
+        <v>477940.2013751507</v>
       </c>
       <c r="E5">
-        <v>4419026.072988754</v>
+        <v>4431899.308488759</v>
       </c>
       <c r="F5">
-        <v>1135797.767464867</v>
+        <v>1138122.083731342</v>
       </c>
       <c r="G5">
-        <v>2093143.587085718</v>
+        <v>2096238.500823383</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3607311.972108506</v>
+        <v>3610398.684077306</v>
       </c>
       <c r="M5">
         <v>17082500</v>
       </c>
       <c r="N5">
-        <v>-15218021.56172111</v>
+        <v>-15748639.98092745</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3037867.383794217</v>
+        <v>3042378.882360671</v>
       </c>
       <c r="C6">
-        <v>11912731.05437087</v>
+        <v>11793689.2422453</v>
       </c>
       <c r="D6">
-        <v>124968.4513374572</v>
+        <v>120796.3121484632</v>
       </c>
       <c r="E6">
-        <v>1981637.785513225</v>
+        <v>1947335.607708778</v>
       </c>
       <c r="F6">
-        <v>3415.493337699772</v>
+        <v>3463.081758284571</v>
       </c>
       <c r="G6">
-        <v>16561.55361397373</v>
+        <v>16410.55683219135</v>
       </c>
       <c r="H6">
-        <v>32805.8930601488</v>
+        <v>32793.98143695435</v>
       </c>
       <c r="I6">
-        <v>87509.16990645071</v>
+        <v>86744.71045971075</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4954230.09445075</v>
+        <v>4952968.683330393</v>
       </c>
       <c r="M6">
         <v>19298842</v>
       </c>
       <c r="N6">
-        <v>-111433679.7212781</v>
+        <v>-111879561.5520043</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>265715.3015655339</v>
+        <v>262253.2854806393</v>
       </c>
       <c r="C7">
-        <v>518037.9995437945</v>
+        <v>511848.5961081053</v>
       </c>
       <c r="D7">
-        <v>14653.67013956901</v>
+        <v>14198.25806533289</v>
       </c>
       <c r="E7">
-        <v>256695.6806454935</v>
+        <v>252193.0215757514</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3346.334548265484</v>
+        <v>3325.927904113064</v>
       </c>
       <c r="I7">
-        <v>28934.78561076601</v>
+        <v>28780.08672243289</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>447016.1327976563</v>
+        <v>446434.3076650257</v>
       </c>
       <c r="M7">
         <v>1280883</v>
       </c>
       <c r="N7">
-        <v>-9779957.523405222</v>
+        <v>-9495335.934603239</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>378463.0682494628</v>
+        <v>374006.961893745</v>
       </c>
       <c r="C8">
-        <v>730031.1979864015</v>
+        <v>720464.977905378</v>
       </c>
       <c r="D8">
-        <v>15416.35889889039</v>
+        <v>13883.09428993243</v>
       </c>
       <c r="E8">
-        <v>373660.9563082493</v>
+        <v>363769.3689012867</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>495.6600434516749</v>
+        <v>486.5398673320153</v>
       </c>
       <c r="I8">
-        <v>43257.83162727644</v>
+        <v>43514.61296119757</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>626989.6668382293</v>
+        <v>625863.5642159636</v>
       </c>
       <c r="M8">
         <v>1727222</v>
       </c>
       <c r="N8">
-        <v>-17460715.37801472</v>
+        <v>-17458317.44103655</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>496128.8738694054</v>
+        <v>496575.093410546</v>
       </c>
       <c r="C9">
-        <v>967115.0526489469</v>
+        <v>977164.3693661016</v>
       </c>
       <c r="D9">
-        <v>34355.93891406941</v>
+        <v>35571.32953601836</v>
       </c>
       <c r="E9">
-        <v>475879.3120555662</v>
+        <v>488125.5194382861</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7424.212596885225</v>
+        <v>7462.812507109139</v>
       </c>
       <c r="I9">
-        <v>55223.09975012481</v>
+        <v>55244.38193566926</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>117254.3456772276</v>
+        <v>117187.0660755375</v>
       </c>
       <c r="L9">
-        <v>838562.1066174377</v>
+        <v>839002.3570706133</v>
       </c>
       <c r="M9">
         <v>2123754</v>
       </c>
       <c r="N9">
-        <v>-13409866.90590997</v>
+        <v>-13409172.55290602</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -860,16 +860,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>14041.59981916333</v>
+        <v>13842.82822051649</v>
       </c>
       <c r="C10">
-        <v>30701.4862361571</v>
+        <v>29991.59272152721</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15675.37693584274</v>
+        <v>15926.11222871166</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -878,25 +878,25 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>486.0020038494206</v>
+        <v>485.2512884408578</v>
       </c>
       <c r="I10">
-        <v>1424.659191362662</v>
+        <v>1429.841569206146</v>
       </c>
       <c r="J10">
-        <v>337.8278257854311</v>
+        <v>338.4467705357499</v>
       </c>
       <c r="K10">
-        <v>3150.234163636495</v>
+        <v>3142.832808664306</v>
       </c>
       <c r="L10">
-        <v>25345.06647579562</v>
+        <v>25329.32897682285</v>
       </c>
       <c r="M10">
         <v>75718</v>
       </c>
       <c r="N10">
-        <v>525051.015162659</v>
+        <v>537321.1355242775</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>99353.99717311266</v>
+        <v>101980.2635283915</v>
       </c>
       <c r="C2">
-        <v>206622.7545377452</v>
+        <v>203321.3259154977</v>
       </c>
       <c r="D2">
-        <v>46330.2991882415</v>
+        <v>48560.49440550131</v>
       </c>
       <c r="E2">
-        <v>105194.1911738916</v>
+        <v>110137.0746932997</v>
       </c>
       <c r="F2">
-        <v>33883.54227742487</v>
+        <v>31773.33009894107</v>
       </c>
       <c r="G2">
-        <v>64539.35110986696</v>
+        <v>62513.38648184393</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>108328.5203483355</v>
+        <v>110528.3819211246</v>
       </c>
       <c r="M2">
-        <v>475933</v>
+        <v>488091</v>
       </c>
       <c r="N2">
-        <v>-1115943.101521906</v>
+        <v>-1223368.496030308</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>143847.151951513</v>
+        <v>170571.1374465533</v>
       </c>
       <c r="C3">
-        <v>1136810.178640253</v>
+        <v>1078711.979006034</v>
       </c>
       <c r="D3">
-        <v>169470.6023616043</v>
+        <v>184032.0602095127</v>
       </c>
       <c r="E3">
-        <v>463739.6429198541</v>
+        <v>490440.1767700277</v>
       </c>
       <c r="F3">
-        <v>331821.986958042</v>
+        <v>335306.2277563654</v>
       </c>
       <c r="G3">
-        <v>58564.92369630033</v>
+        <v>61500.96306102316</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>457013.976539114</v>
+        <v>458452.9194627599</v>
       </c>
       <c r="M3">
-        <v>1918002</v>
+        <v>1889058</v>
       </c>
       <c r="N3">
-        <v>2122598.277787185</v>
+        <v>1588859.348634124</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>122758.2999097182</v>
+        <v>158597.212605966</v>
       </c>
       <c r="C4">
-        <v>969626.3058711978</v>
+        <v>1010817.160693137</v>
       </c>
       <c r="D4">
-        <v>126320.1819531555</v>
+        <v>138821.3414880656</v>
       </c>
       <c r="E4">
-        <v>437086.1357502917</v>
+        <v>466056.4984134863</v>
       </c>
       <c r="F4">
-        <v>327559.48397081</v>
+        <v>363829.1209373104</v>
       </c>
       <c r="G4">
-        <v>16943.774205208</v>
+        <v>19202.44997653967</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>394970.214485343</v>
+        <v>424924.2425785667</v>
       </c>
       <c r="M4">
-        <v>1904364</v>
+        <v>1839725</v>
       </c>
       <c r="N4">
-        <v>-1041429.656400205</v>
+        <v>-2031493.31706158</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1065774.33626986</v>
+        <v>1279288.696596263</v>
       </c>
       <c r="C5">
-        <v>8890057.260563912</v>
+        <v>8949792.824036717</v>
       </c>
       <c r="D5">
-        <v>477940.2013751507</v>
+        <v>535966.8213663122</v>
       </c>
       <c r="E5">
-        <v>4431899.308488759</v>
+        <v>4875277.523994174</v>
       </c>
       <c r="F5">
-        <v>1138122.083731342</v>
+        <v>1161359.993035495</v>
       </c>
       <c r="G5">
-        <v>2096238.500823383</v>
+        <v>2134470.269286746</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3610398.684077306</v>
+        <v>3774957.902677951</v>
       </c>
       <c r="M5">
-        <v>17082500</v>
+        <v>16635309</v>
       </c>
       <c r="N5">
-        <v>-15748639.98092745</v>
+        <v>-22128932.28476482</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3042378.882360671</v>
+        <v>3007169.062188275</v>
       </c>
       <c r="C6">
-        <v>11793689.2422453</v>
+        <v>12338289.33595799</v>
       </c>
       <c r="D6">
-        <v>120796.3121484632</v>
+        <v>128464.7370338537</v>
       </c>
       <c r="E6">
-        <v>1947335.607708778</v>
+        <v>2063371.82551581</v>
       </c>
       <c r="F6">
-        <v>3463.081758284571</v>
+        <v>3422.877969704094</v>
       </c>
       <c r="G6">
-        <v>16410.55683219135</v>
+        <v>17720.37751697213</v>
       </c>
       <c r="H6">
-        <v>32793.98143695435</v>
+        <v>35144.8281358855</v>
       </c>
       <c r="I6">
-        <v>86744.71045971075</v>
+        <v>103905.0894502878</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4952968.683330393</v>
+        <v>5178024.709459736</v>
       </c>
       <c r="M6">
-        <v>19298842</v>
+        <v>19336686</v>
       </c>
       <c r="N6">
-        <v>-111879561.5520043</v>
+        <v>-102737330.6694238</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>262253.2854806393</v>
+        <v>266798.0980354563</v>
       </c>
       <c r="C7">
-        <v>511848.5961081053</v>
+        <v>492108.3574239232</v>
       </c>
       <c r="D7">
-        <v>14198.25806533289</v>
+        <v>14090.70299876414</v>
       </c>
       <c r="E7">
-        <v>252193.0215757514</v>
+        <v>240794.4060711662</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3325.927904113064</v>
+        <v>2938.628850861965</v>
       </c>
       <c r="I7">
-        <v>28780.08672243289</v>
+        <v>27683.46594013644</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>446434.3076650257</v>
+        <v>434137.5465166417</v>
       </c>
       <c r="M7">
-        <v>1280883</v>
+        <v>1285804</v>
       </c>
       <c r="N7">
-        <v>-9495335.934603239</v>
+        <v>-10375009.48035318</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>374006.961893745</v>
+        <v>386079.8740053602</v>
       </c>
       <c r="C8">
-        <v>720464.977905378</v>
+        <v>716683.5716005325</v>
       </c>
       <c r="D8">
-        <v>13883.09428993243</v>
+        <v>14143.02059038254</v>
       </c>
       <c r="E8">
-        <v>363769.3689012867</v>
+        <v>344040.0526271849</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>486.5398673320153</v>
+        <v>489.965761128891</v>
       </c>
       <c r="I8">
-        <v>43514.61296119757</v>
+        <v>48067.50341482094</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>625863.5642159636</v>
+        <v>631144.2250259639</v>
       </c>
       <c r="M8">
-        <v>1727222</v>
+        <v>1755188</v>
       </c>
       <c r="N8">
-        <v>-17458317.44103655</v>
+        <v>-17140399.54793891</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>496575.093410546</v>
+        <v>491406.3217024464</v>
       </c>
       <c r="C9">
-        <v>977164.3693661016</v>
+        <v>915512.408190392</v>
       </c>
       <c r="D9">
-        <v>35571.32953601836</v>
+        <v>34079.93684119557</v>
       </c>
       <c r="E9">
-        <v>488125.5194382861</v>
+        <v>449806.4137633158</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7462.812507109139</v>
+        <v>7071.046058781509</v>
       </c>
       <c r="I9">
-        <v>55244.38193566926</v>
+        <v>51291.42504973293</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>117187.0660755375</v>
+        <v>109480.1911580423</v>
       </c>
       <c r="L9">
-        <v>839002.3570706133</v>
+        <v>808666.4702544044</v>
       </c>
       <c r="M9">
-        <v>2123754</v>
+        <v>2125695</v>
       </c>
       <c r="N9">
-        <v>-13409172.55290602</v>
+        <v>-12877185.17237</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -860,16 +860,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13842.82822051649</v>
+        <v>13539.57014761659</v>
       </c>
       <c r="C10">
-        <v>29991.59272152721</v>
+        <v>28584.02520315087</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15926.11222871166</v>
+        <v>14566.41469429497</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -878,25 +878,25 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>485.2512884408578</v>
+        <v>497.1197288892781</v>
       </c>
       <c r="I10">
-        <v>1429.841569206146</v>
+        <v>1359.41952455412</v>
       </c>
       <c r="J10">
-        <v>338.4467705357499</v>
+        <v>348.1917849842624</v>
       </c>
       <c r="K10">
-        <v>3142.832808664306</v>
+        <v>3152.765017744969</v>
       </c>
       <c r="L10">
-        <v>25329.32897682285</v>
+        <v>24625.36996271343</v>
       </c>
       <c r="M10">
-        <v>75718</v>
+        <v>73843</v>
       </c>
       <c r="N10">
-        <v>537321.1355242775</v>
+        <v>513385.960582255</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>101980.2635283915</v>
+        <v>121887.7508391947</v>
       </c>
       <c r="C2">
-        <v>203321.3259154977</v>
+        <v>179500.3733426418</v>
       </c>
       <c r="D2">
-        <v>48560.49440550131</v>
+        <v>47642.83711962152</v>
       </c>
       <c r="E2">
-        <v>110137.0746932997</v>
+        <v>108933.7394018943</v>
       </c>
       <c r="F2">
-        <v>31773.33009894107</v>
+        <v>31796.82855592504</v>
       </c>
       <c r="G2">
-        <v>62513.38648184393</v>
+        <v>61647.82542498726</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>110528.3819211246</v>
+        <v>107159.9862556309</v>
       </c>
       <c r="M2">
-        <v>488091</v>
+        <v>478604</v>
       </c>
       <c r="N2">
-        <v>-1223368.496030308</v>
+        <v>-1638070.479895461</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>170571.1374465533</v>
+        <v>290808.4172858934</v>
       </c>
       <c r="C3">
-        <v>1078711.979006034</v>
+        <v>1043965.56281437</v>
       </c>
       <c r="D3">
-        <v>184032.0602095127</v>
+        <v>183310.55852485</v>
       </c>
       <c r="E3">
-        <v>490440.1767700277</v>
+        <v>487454.9978644329</v>
       </c>
       <c r="F3">
-        <v>335306.2277563654</v>
+        <v>372161.2534117086</v>
       </c>
       <c r="G3">
-        <v>61500.96306102316</v>
+        <v>65162.98901342508</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>458452.9194627599</v>
+        <v>477677.0912391662</v>
       </c>
       <c r="M3">
-        <v>1889058</v>
+        <v>1883133</v>
       </c>
       <c r="N3">
-        <v>1588859.348634124</v>
+        <v>-2245866.61926672</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>158597.212605966</v>
+        <v>260636.7438006935</v>
       </c>
       <c r="C4">
-        <v>1010817.160693137</v>
+        <v>992098.20463242</v>
       </c>
       <c r="D4">
-        <v>138821.3414880656</v>
+        <v>150523.3947296274</v>
       </c>
       <c r="E4">
-        <v>466056.4984134863</v>
+        <v>500280.7773105183</v>
       </c>
       <c r="F4">
-        <v>363829.1209373104</v>
+        <v>377057.87567298</v>
       </c>
       <c r="G4">
-        <v>19202.44997653967</v>
+        <v>19909.62889123779</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>424924.2425785667</v>
+        <v>449083.7939249169</v>
       </c>
       <c r="M4">
-        <v>1839725</v>
+        <v>1882109</v>
       </c>
       <c r="N4">
-        <v>-2031493.31706158</v>
+        <v>-4579106.973912297</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1279288.696596263</v>
+        <v>2054051.144460424</v>
       </c>
       <c r="C5">
-        <v>8949792.824036717</v>
+        <v>8499879.150532279</v>
       </c>
       <c r="D5">
-        <v>535966.8213663122</v>
+        <v>548763.0379704817</v>
       </c>
       <c r="E5">
-        <v>4875277.523994174</v>
+        <v>4887067.505869634</v>
       </c>
       <c r="F5">
-        <v>1161359.993035495</v>
+        <v>1205292.938557166</v>
       </c>
       <c r="G5">
-        <v>2134470.269286746</v>
+        <v>2251618.13172326</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3774957.902677951</v>
+        <v>3799107.776634002</v>
       </c>
       <c r="M5">
-        <v>16635309</v>
+        <v>16706696</v>
       </c>
       <c r="N5">
-        <v>-22128932.28476482</v>
+        <v>-46435926.51898113</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3007169.062188275</v>
+        <v>2797649.067652238</v>
       </c>
       <c r="C6">
-        <v>12338289.33595799</v>
+        <v>12143857.60871323</v>
       </c>
       <c r="D6">
-        <v>128464.7370338537</v>
+        <v>121598.3631710667</v>
       </c>
       <c r="E6">
-        <v>2063371.82551581</v>
+        <v>2027352.455408695</v>
       </c>
       <c r="F6">
-        <v>3422.877969704094</v>
+        <v>2639.373212874392</v>
       </c>
       <c r="G6">
-        <v>17720.37751697213</v>
+        <v>16226.68131930267</v>
       </c>
       <c r="H6">
-        <v>35144.8281358855</v>
+        <v>32392.81418579043</v>
       </c>
       <c r="I6">
-        <v>103905.0894502878</v>
+        <v>91493.54415584161</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5178024.709459736</v>
+        <v>4908354.477361537</v>
       </c>
       <c r="M6">
-        <v>19336686</v>
+        <v>18934941</v>
       </c>
       <c r="N6">
-        <v>-102737330.6694238</v>
+        <v>-96704728.07845949</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>266798.0980354563</v>
+        <v>87381.56946073256</v>
       </c>
       <c r="C7">
-        <v>492108.3574239232</v>
+        <v>637630.9958981064</v>
       </c>
       <c r="D7">
-        <v>14090.70299876414</v>
+        <v>13749.41001973932</v>
       </c>
       <c r="E7">
-        <v>240794.4060711662</v>
+        <v>229560.922070787</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2938.628850861965</v>
+        <v>2983.996940773024</v>
       </c>
       <c r="I7">
-        <v>27683.46594013644</v>
+        <v>27679.25379375322</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>434137.5465166417</v>
+        <v>413969.033351967</v>
       </c>
       <c r="M7">
-        <v>1285804</v>
+        <v>1308268</v>
       </c>
       <c r="N7">
-        <v>-10375009.48035318</v>
+        <v>876155.495274123</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>386079.8740053602</v>
+        <v>115297.1305460939</v>
       </c>
       <c r="C8">
-        <v>716683.5716005325</v>
+        <v>877089.7730289879</v>
       </c>
       <c r="D8">
-        <v>14143.02059038254</v>
+        <v>12630.74427382456</v>
       </c>
       <c r="E8">
-        <v>344040.0526271849</v>
+        <v>308040.7001493509</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>489.965761128891</v>
+        <v>390.2561563875116</v>
       </c>
       <c r="I8">
-        <v>48067.50341482094</v>
+        <v>40357.09939653027</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>631144.2250259639</v>
+        <v>566244.6024222162</v>
       </c>
       <c r="M8">
-        <v>1755188</v>
+        <v>1790272</v>
       </c>
       <c r="N8">
-        <v>-17140399.54793891</v>
+        <v>-2290452.246465877</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>491406.3217024464</v>
+        <v>168272.7837501388</v>
       </c>
       <c r="C9">
-        <v>915512.408190392</v>
+        <v>1250752.328496751</v>
       </c>
       <c r="D9">
-        <v>34079.93684119557</v>
+        <v>30864.89835173863</v>
       </c>
       <c r="E9">
-        <v>449806.4137633158</v>
+        <v>429706.3321462086</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7071.046058781509</v>
+        <v>6506.454002167017</v>
       </c>
       <c r="I9">
-        <v>51291.42504973293</v>
+        <v>50181.65374469986</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>109480.1911580423</v>
+        <v>114581.6886369311</v>
       </c>
       <c r="L9">
-        <v>808666.4702544044</v>
+        <v>814159.2988155709</v>
       </c>
       <c r="M9">
-        <v>2125695</v>
+        <v>2135774</v>
       </c>
       <c r="N9">
-        <v>-12877185.17237</v>
+        <v>125587.1934078859</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -860,16 +860,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13539.57014761659</v>
+        <v>4653.505947600944</v>
       </c>
       <c r="C10">
-        <v>28584.02520315087</v>
+        <v>38293.70030521974</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14566.41469429497</v>
+        <v>13738.02059960594</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -878,25 +878,25 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>497.1197288892781</v>
+        <v>470.5711812910951</v>
       </c>
       <c r="I10">
-        <v>1359.41952455412</v>
+        <v>1438.544467981875</v>
       </c>
       <c r="J10">
-        <v>348.1917849842624</v>
+        <v>350.3064277618936</v>
       </c>
       <c r="K10">
-        <v>3152.765017744969</v>
+        <v>3077.046117739438</v>
       </c>
       <c r="L10">
-        <v>24625.36996271343</v>
+        <v>24771.44269072699</v>
       </c>
       <c r="M10">
-        <v>73843</v>
+        <v>74633</v>
       </c>
       <c r="N10">
-        <v>513385.960582255</v>
+        <v>882850.9190963316</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>121887.7508391947</v>
+        <v>86672.41240378282</v>
       </c>
       <c r="C2">
-        <v>179500.3733426418</v>
+        <v>195616.8733457072</v>
       </c>
       <c r="D2">
-        <v>47642.83711962152</v>
+        <v>44682.56163546581</v>
       </c>
       <c r="E2">
-        <v>108933.7394018943</v>
+        <v>102080.1414051455</v>
       </c>
       <c r="F2">
-        <v>31796.82855592504</v>
+        <v>30392.78616293159</v>
       </c>
       <c r="G2">
-        <v>61647.82542498726</v>
+        <v>58936.43069360456</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>107159.9862556309</v>
+        <v>102340.6199999685</v>
       </c>
       <c r="M2">
         <v>478604</v>
       </c>
       <c r="N2">
-        <v>-1638070.479895461</v>
+        <v>-802532.2013683587</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>290808.4172858934</v>
+        <v>171239.8765410288</v>
       </c>
       <c r="C3">
-        <v>1043965.56281437</v>
+        <v>1099651.776523936</v>
       </c>
       <c r="D3">
-        <v>183310.55852485</v>
+        <v>184889.8573586767</v>
       </c>
       <c r="E3">
-        <v>487454.9978644329</v>
+        <v>481128.7021619573</v>
       </c>
       <c r="F3">
-        <v>372161.2534117086</v>
+        <v>356456.7310474877</v>
       </c>
       <c r="G3">
-        <v>65162.98901342508</v>
+        <v>62285.79691835454</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>477677.0912391662</v>
+        <v>458594.4442516229</v>
       </c>
       <c r="M3">
         <v>1883133</v>
       </c>
       <c r="N3">
-        <v>-2245866.61926672</v>
+        <v>1217124.063977302</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>260636.7438006935</v>
+        <v>157955.408601503</v>
       </c>
       <c r="C4">
-        <v>992098.20463242</v>
+        <v>1020048.660262931</v>
       </c>
       <c r="D4">
-        <v>150523.3947296274</v>
+        <v>137808.8748991084</v>
       </c>
       <c r="E4">
-        <v>500280.7773105183</v>
+        <v>470894.5155970114</v>
       </c>
       <c r="F4">
-        <v>377057.87567298</v>
+        <v>363153.2759532086</v>
       </c>
       <c r="G4">
-        <v>19909.62889123779</v>
+        <v>19192.53489715925</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>449083.7939249169</v>
+        <v>431843.1085169995</v>
       </c>
       <c r="M4">
         <v>1882109</v>
       </c>
       <c r="N4">
-        <v>-4579106.973912297</v>
+        <v>-1651232.210807197</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2054051.144460424</v>
+        <v>1258970.794965762</v>
       </c>
       <c r="C5">
-        <v>8499879.150532279</v>
+        <v>8695504.270762542</v>
       </c>
       <c r="D5">
-        <v>548763.0379704817</v>
+        <v>515916.1434360272</v>
       </c>
       <c r="E5">
-        <v>4887067.505869634</v>
+        <v>4725024.324458642</v>
       </c>
       <c r="F5">
-        <v>1205292.938557166</v>
+        <v>1163603.229309743</v>
       </c>
       <c r="G5">
-        <v>2251618.13172326</v>
+        <v>2170783.976268746</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3799107.776634002</v>
+        <v>3661843.524807534</v>
       </c>
       <c r="M5">
         <v>16706696</v>
       </c>
       <c r="N5">
-        <v>-46435926.51898113</v>
+        <v>-22567224.35292161</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2797649.067652238</v>
+        <v>1663490.593125748</v>
       </c>
       <c r="C6">
-        <v>12143857.60871323</v>
+        <v>12267697.13362586</v>
       </c>
       <c r="D6">
-        <v>121598.3631710667</v>
+        <v>116165.986526661</v>
       </c>
       <c r="E6">
-        <v>2027352.455408695</v>
+        <v>1821744.834777101</v>
       </c>
       <c r="F6">
-        <v>2639.373212874392</v>
+        <v>2486.196541469621</v>
       </c>
       <c r="G6">
-        <v>16226.68131930267</v>
+        <v>15344.38144983548</v>
       </c>
       <c r="H6">
-        <v>32392.81418579043</v>
+        <v>29971.39726355649</v>
       </c>
       <c r="I6">
-        <v>91493.54415584161</v>
+        <v>85425.11728527615</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4908354.477361537</v>
+        <v>4633059.069197008</v>
       </c>
       <c r="M6">
         <v>18934941</v>
       </c>
       <c r="N6">
-        <v>-96704728.07845949</v>
+        <v>-35674193.59174423</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>87381.56946073256</v>
+        <v>52482.97129076755</v>
       </c>
       <c r="C7">
-        <v>637630.9958981064</v>
+        <v>641272.6829522284</v>
       </c>
       <c r="D7">
-        <v>13749.41001973932</v>
+        <v>13308.50107708262</v>
       </c>
       <c r="E7">
-        <v>229560.922070787</v>
+        <v>228916.9238286341</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2983.996940773024</v>
+        <v>2909.18182890542</v>
       </c>
       <c r="I7">
-        <v>27679.25379375322</v>
+        <v>26778.85349469975</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>413969.033351967</v>
+        <v>403963.4667627165</v>
       </c>
       <c r="M7">
         <v>1308268</v>
       </c>
       <c r="N7">
-        <v>876155.495274123</v>
+        <v>3301966.600230977</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>115297.1305460939</v>
+        <v>71117.7066778329</v>
       </c>
       <c r="C8">
-        <v>877089.7730289879</v>
+        <v>885652.4998684727</v>
       </c>
       <c r="D8">
-        <v>12630.74427382456</v>
+        <v>13126.15081484203</v>
       </c>
       <c r="E8">
-        <v>308040.7001493509</v>
+        <v>314945.8777115669</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>390.2561563875116</v>
+        <v>370.4914663847729</v>
       </c>
       <c r="I8">
-        <v>40357.09939653027</v>
+        <v>39445.52172160112</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>566244.6024222162</v>
+        <v>553523.2821897442</v>
       </c>
       <c r="M8">
         <v>1790272</v>
       </c>
       <c r="N8">
-        <v>-2290452.246465877</v>
+        <v>566693.705443401</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>168272.7837501388</v>
+        <v>102248.3019772943</v>
       </c>
       <c r="C9">
-        <v>1250752.328496751</v>
+        <v>1283548.83216714</v>
       </c>
       <c r="D9">
-        <v>30864.89835173863</v>
+        <v>33193.11900167656</v>
       </c>
       <c r="E9">
-        <v>429706.3321462086</v>
+        <v>451531.3516142145</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6506.454002167017</v>
+        <v>6431.404166033427</v>
       </c>
       <c r="I9">
-        <v>50181.65374469986</v>
+        <v>49481.36630739755</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>114581.6886369311</v>
+        <v>112978.8723840714</v>
       </c>
       <c r="L9">
-        <v>814159.2988155709</v>
+        <v>804373.7735196552</v>
       </c>
       <c r="M9">
         <v>2135774</v>
       </c>
       <c r="N9">
-        <v>125587.1934078859</v>
+        <v>3072023.467839366</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -860,16 +860,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4653.505947600944</v>
+        <v>2877.437168398504</v>
       </c>
       <c r="C10">
-        <v>38293.70030521974</v>
+        <v>39415.97953120778</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13738.02059960594</v>
+        <v>14994.68709842435</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -878,25 +878,25 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>470.5711812910951</v>
+        <v>466.2107135269245</v>
       </c>
       <c r="I10">
-        <v>1438.544467981875</v>
+        <v>1426.220741011855</v>
       </c>
       <c r="J10">
-        <v>350.3064277618936</v>
+        <v>344.8313015156971</v>
       </c>
       <c r="K10">
-        <v>3077.046117739438</v>
+        <v>3032.383784879353</v>
       </c>
       <c r="L10">
-        <v>24771.44269072699</v>
+        <v>24521.42643567327</v>
       </c>
       <c r="M10">
         <v>74633</v>
       </c>
       <c r="N10">
-        <v>882850.9190963316</v>
+        <v>964397.7766785832</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>86672.41240378282</v>
+        <v>62055.72600185245</v>
       </c>
       <c r="C2">
-        <v>195616.8733457072</v>
+        <v>210755.2403259868</v>
       </c>
       <c r="D2">
-        <v>44682.56163546581</v>
+        <v>41646.74441984874</v>
       </c>
       <c r="E2">
-        <v>102080.1414051455</v>
+        <v>97092.19265028084</v>
       </c>
       <c r="F2">
-        <v>30392.78616293159</v>
+        <v>29335.31991861612</v>
       </c>
       <c r="G2">
-        <v>58936.43069360456</v>
+        <v>56747.75023250918</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>102340.6199999685</v>
+        <v>98596.55224316946</v>
       </c>
       <c r="M2">
         <v>478604</v>
       </c>
       <c r="N2">
-        <v>-802532.2013683587</v>
+        <v>-186445.8130514265</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>171239.8765410288</v>
+        <v>92485.07277562005</v>
       </c>
       <c r="C3">
-        <v>1099651.776523936</v>
+        <v>1117885.046357328</v>
       </c>
       <c r="D3">
-        <v>184889.8573586767</v>
+        <v>176087.8085046782</v>
       </c>
       <c r="E3">
-        <v>481128.7021619573</v>
+        <v>452018.5168496377</v>
       </c>
       <c r="F3">
-        <v>356456.7310474877</v>
+        <v>347503.5330467071</v>
       </c>
       <c r="G3">
-        <v>62285.79691835454</v>
+        <v>60649.8026916929</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>458594.4442516229</v>
+        <v>446899.0072971511</v>
       </c>
       <c r="M3">
         <v>1883133</v>
       </c>
       <c r="N3">
-        <v>1217124.063977302</v>
+        <v>3377153.768995863</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>157955.408601503</v>
+        <v>86751.60010067113</v>
       </c>
       <c r="C4">
-        <v>1020048.660262931</v>
+        <v>1062624.78902278</v>
       </c>
       <c r="D4">
-        <v>137808.8748991084</v>
+        <v>139939.6976901911</v>
       </c>
       <c r="E4">
-        <v>470894.5155970114</v>
+        <v>462563.0609718825</v>
       </c>
       <c r="F4">
-        <v>363153.2759532086</v>
+        <v>351168.0429914654</v>
       </c>
       <c r="G4">
-        <v>19192.53489715925</v>
+        <v>18568.50667756838</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>431843.1085169995</v>
+        <v>418660.2907791849</v>
       </c>
       <c r="M4">
         <v>1882109</v>
       </c>
       <c r="N4">
-        <v>-1651232.210807197</v>
+        <v>331817.0690011719</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1258970.794965762</v>
+        <v>686494.6047861865</v>
       </c>
       <c r="C5">
-        <v>8695504.270762542</v>
+        <v>8906764.599158458</v>
       </c>
       <c r="D5">
-        <v>515916.1434360272</v>
+        <v>476577.7120986793</v>
       </c>
       <c r="E5">
-        <v>4725024.324458642</v>
+        <v>4324888.58432802</v>
       </c>
       <c r="F5">
-        <v>1163603.229309743</v>
+        <v>1126142.133742702</v>
       </c>
       <c r="G5">
-        <v>2170783.976268746</v>
+        <v>2099230.069220617</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3661843.524807534</v>
+        <v>3535382.208878238</v>
       </c>
       <c r="M5">
         <v>16706696</v>
       </c>
       <c r="N5">
-        <v>-22567224.35292161</v>
+        <v>-512708.0751223</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1663490.593125748</v>
+        <v>1293688.391712868</v>
       </c>
       <c r="C6">
-        <v>12267697.13362586</v>
+        <v>12311726.10387372</v>
       </c>
       <c r="D6">
-        <v>116165.986526661</v>
+        <v>112952.8396302962</v>
       </c>
       <c r="E6">
-        <v>1821744.834777101</v>
+        <v>1869186.005408378</v>
       </c>
       <c r="F6">
-        <v>2486.196541469621</v>
+        <v>2508.362893795049</v>
       </c>
       <c r="G6">
-        <v>15344.38144983548</v>
+        <v>15417.58568914028</v>
       </c>
       <c r="H6">
-        <v>29971.39726355649</v>
+        <v>29624.05845613789</v>
       </c>
       <c r="I6">
-        <v>85425.11728527615</v>
+        <v>83952.96409439101</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4633059.069197008</v>
+        <v>4536475.302857678</v>
       </c>
       <c r="M6">
         <v>18934941</v>
       </c>
       <c r="N6">
-        <v>-35674193.59174423</v>
+        <v>-12702875.28748685</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>52482.97129076755</v>
+        <v>180984.3867666702</v>
       </c>
       <c r="C7">
-        <v>641272.6829522284</v>
+        <v>587008.5275913855</v>
       </c>
       <c r="D7">
-        <v>13308.50107708262</v>
+        <v>14111.82206880636</v>
       </c>
       <c r="E7">
-        <v>228916.9238286341</v>
+        <v>240931.2807252652</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2909.18182890542</v>
+        <v>3163.55755436648</v>
       </c>
       <c r="I7">
-        <v>26778.85349469975</v>
+        <v>29194.28045063673</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>403963.4667627165</v>
+        <v>437483.0477748009</v>
       </c>
       <c r="M7">
         <v>1308268</v>
       </c>
       <c r="N7">
-        <v>3301966.600230977</v>
+        <v>-5182801.62870267</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>71117.7066778329</v>
+        <v>245830.2436047272</v>
       </c>
       <c r="C8">
-        <v>885652.4998684727</v>
+        <v>788558.6622020555</v>
       </c>
       <c r="D8">
-        <v>13126.15081484203</v>
+        <v>14429.55907263298</v>
       </c>
       <c r="E8">
-        <v>314945.8777115669</v>
+        <v>340335.9191496786</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>370.4914663847729</v>
+        <v>410.076929629828</v>
       </c>
       <c r="I8">
-        <v>39445.52172160112</v>
+        <v>42568.46776167861</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>553523.2821897442</v>
+        <v>595742.8832296693</v>
       </c>
       <c r="M8">
         <v>1790272</v>
       </c>
       <c r="N8">
-        <v>566693.705443401</v>
+        <v>-9988391.641453706</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>102248.3019772943</v>
+        <v>339929.8703606237</v>
       </c>
       <c r="C9">
-        <v>1283548.83216714</v>
+        <v>1111210.786268983</v>
       </c>
       <c r="D9">
-        <v>33193.11900167656</v>
+        <v>32093.37407567898</v>
       </c>
       <c r="E9">
-        <v>451531.3516142145</v>
+        <v>450845.9799461034</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6431.404166033427</v>
+        <v>6656.551296617394</v>
       </c>
       <c r="I9">
-        <v>49481.36630739755</v>
+        <v>51438.14941790275</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>112978.8723840714</v>
+        <v>117307.2106459744</v>
       </c>
       <c r="L9">
-        <v>804373.7735196552</v>
+        <v>834874.2647557561</v>
       </c>
       <c r="M9">
         <v>2135774</v>
       </c>
       <c r="N9">
-        <v>3072023.467839366</v>
+        <v>-6424853.998153381</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -860,16 +860,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2877.437168398504</v>
+        <v>9762.55851804638</v>
       </c>
       <c r="C10">
-        <v>39415.97953120778</v>
+        <v>35110.01475636285</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14994.68709842435</v>
+        <v>15044.68345513359</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -878,25 +878,25 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>466.2107135269245</v>
+        <v>483.6139819266171</v>
       </c>
       <c r="I10">
-        <v>1426.220741011855</v>
+        <v>1476.894634070819</v>
       </c>
       <c r="J10">
-        <v>344.8313015156971</v>
+        <v>357.7930951135463</v>
       </c>
       <c r="K10">
-        <v>3032.383784879353</v>
+        <v>3140.18799485801</v>
       </c>
       <c r="L10">
-        <v>24521.42643567327</v>
+        <v>25460.75053403873</v>
       </c>
       <c r="M10">
         <v>74633</v>
       </c>
       <c r="N10">
-        <v>964397.7766785832</v>
+        <v>665614.6156493073</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>62055.72600185245</v>
+        <v>81713.42082933028</v>
       </c>
       <c r="C2">
-        <v>210755.2403259868</v>
+        <v>209331.5146913387</v>
       </c>
       <c r="D2">
-        <v>41646.74441984874</v>
+        <v>45447.2193151285</v>
       </c>
       <c r="E2">
-        <v>97092.19265028084</v>
+        <v>102718.8302365146</v>
       </c>
       <c r="F2">
-        <v>29335.31991861612</v>
+        <v>30704.55796850771</v>
       </c>
       <c r="G2">
-        <v>56747.75023250918</v>
+        <v>59920.58922281295</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>98596.55224316946</v>
+        <v>104390.2711137563</v>
       </c>
       <c r="M2">
-        <v>478604</v>
+        <v>493959</v>
       </c>
       <c r="N2">
-        <v>-186445.8130514265</v>
+        <v>-666447.474121045</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>92485.07277562005</v>
+        <v>154755.5498823842</v>
       </c>
       <c r="C3">
-        <v>1117885.046357328</v>
+        <v>1122003.939511045</v>
       </c>
       <c r="D3">
-        <v>176087.8085046782</v>
+        <v>176375.9421481215</v>
       </c>
       <c r="E3">
-        <v>452018.5168496377</v>
+        <v>462384.9881258891</v>
       </c>
       <c r="F3">
-        <v>347503.5330467071</v>
+        <v>366824.5813398941</v>
       </c>
       <c r="G3">
-        <v>60649.8026916929</v>
+        <v>64291.99995659117</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>446899.0072971511</v>
+        <v>464300.7535408283</v>
       </c>
       <c r="M3">
-        <v>1883133</v>
+        <v>1978698</v>
       </c>
       <c r="N3">
-        <v>3377153.768995863</v>
+        <v>2196189.057371493</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>86751.60010067113</v>
+        <v>132740.712749914</v>
       </c>
       <c r="C4">
-        <v>1062624.78902278</v>
+        <v>971195.6606202568</v>
       </c>
       <c r="D4">
-        <v>139939.6976901911</v>
+        <v>129672.719706069</v>
       </c>
       <c r="E4">
-        <v>462563.0609718825</v>
+        <v>437894.8024607493</v>
       </c>
       <c r="F4">
-        <v>351168.0429914654</v>
+        <v>340377.0632997038</v>
       </c>
       <c r="G4">
-        <v>18568.50667756838</v>
+        <v>17795.53694012826</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>418660.2907791849</v>
+        <v>398664.5514456653</v>
       </c>
       <c r="M4">
-        <v>1882109</v>
+        <v>1845899</v>
       </c>
       <c r="N4">
-        <v>331817.0690011719</v>
+        <v>-1530145.442196426</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>686494.6047861865</v>
+        <v>1133965.383706478</v>
       </c>
       <c r="C5">
-        <v>8906764.599158458</v>
+        <v>8932415.381445373</v>
       </c>
       <c r="D5">
-        <v>476577.7120986793</v>
+        <v>481218.4120266105</v>
       </c>
       <c r="E5">
-        <v>4324888.58432802</v>
+        <v>4555766.163799621</v>
       </c>
       <c r="F5">
-        <v>1126142.133742702</v>
+        <v>1144495.852365029</v>
       </c>
       <c r="G5">
-        <v>2099230.069220617</v>
+        <v>2136598.109062613</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3535382.208878238</v>
+        <v>3649971.26323451</v>
       </c>
       <c r="M5">
-        <v>16706696</v>
+        <v>16715159</v>
       </c>
       <c r="N5">
-        <v>-512708.0751223</v>
+        <v>-15846228.12150308</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1293688.391712868</v>
+        <v>2495139.270411274</v>
       </c>
       <c r="C6">
-        <v>12311726.10387372</v>
+        <v>12123713.65611276</v>
       </c>
       <c r="D6">
-        <v>112952.8396302962</v>
+        <v>121977.578919976</v>
       </c>
       <c r="E6">
-        <v>1869186.005408378</v>
+        <v>1965858.836776672</v>
       </c>
       <c r="F6">
-        <v>2508.362893795049</v>
+        <v>3747.895591583234</v>
       </c>
       <c r="G6">
-        <v>15417.58568914028</v>
+        <v>18682.26057266737</v>
       </c>
       <c r="H6">
-        <v>29624.05845613789</v>
+        <v>28941.99265165971</v>
       </c>
       <c r="I6">
-        <v>83952.96409439101</v>
+        <v>88507.63689772568</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4536475.302857678</v>
+        <v>4769974.999857456</v>
       </c>
       <c r="M6">
-        <v>18934941</v>
+        <v>18649459</v>
       </c>
       <c r="N6">
-        <v>-12702875.28748685</v>
+        <v>-81975132.65373722</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>180984.3867666702</v>
+        <v>216554.5930739017</v>
       </c>
       <c r="C7">
-        <v>587008.5275913855</v>
+        <v>533330.5048762292</v>
       </c>
       <c r="D7">
-        <v>14111.82206880636</v>
+        <v>13363.99577478255</v>
       </c>
       <c r="E7">
-        <v>240931.2807252652</v>
+        <v>231345.8793858651</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3163.55755436648</v>
+        <v>3067.210113959789</v>
       </c>
       <c r="I7">
-        <v>29194.28045063673</v>
+        <v>29023.05524100068</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>437483.0477748009</v>
+        <v>424512.0270158291</v>
       </c>
       <c r="M7">
-        <v>1308268</v>
+        <v>1316320</v>
       </c>
       <c r="N7">
-        <v>-5182801.62870267</v>
+        <v>-7426344.351537578</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>245830.2436047272</v>
+        <v>297388.2308470646</v>
       </c>
       <c r="C8">
-        <v>788558.6622020555</v>
+        <v>734698.2589505453</v>
       </c>
       <c r="D8">
-        <v>14429.55907263298</v>
+        <v>13613.70703454219</v>
       </c>
       <c r="E8">
-        <v>340335.9191496786</v>
+        <v>333247.2328662757</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>410.076929629828</v>
+        <v>414.6002428667867</v>
       </c>
       <c r="I8">
-        <v>42568.46776167861</v>
+        <v>42269.01823739838</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>595742.8832296693</v>
+        <v>589855.8092549265</v>
       </c>
       <c r="M8">
-        <v>1790272</v>
+        <v>1725812</v>
       </c>
       <c r="N8">
-        <v>-9988391.641453706</v>
+        <v>-13027286.90410081</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>339929.8703606237</v>
+        <v>409565.6482629338</v>
       </c>
       <c r="C9">
-        <v>1111210.786268983</v>
+        <v>1011801.823302524</v>
       </c>
       <c r="D9">
-        <v>32093.37407567898</v>
+        <v>31422.06035645648</v>
       </c>
       <c r="E9">
-        <v>450845.9799461034</v>
+        <v>443264.9761367242</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6656.551296617394</v>
+        <v>7031.933879770537</v>
       </c>
       <c r="I9">
-        <v>51438.14941790275</v>
+        <v>49588.21923238718</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>117307.2106459744</v>
+        <v>109853.8782946166</v>
       </c>
       <c r="L9">
-        <v>834874.2647557561</v>
+        <v>819014.9155127716</v>
       </c>
       <c r="M9">
-        <v>2135774</v>
+        <v>2139047</v>
       </c>
       <c r="N9">
-        <v>-6424853.998153381</v>
+        <v>-9789781.278131295</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -860,16 +860,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9762.55851804638</v>
+        <v>10982.51925010969</v>
       </c>
       <c r="C10">
-        <v>35110.01475636285</v>
+        <v>30181.67853248671</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15044.68345513359</v>
+        <v>13596.36173699118</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -878,25 +878,25 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>483.6139819266171</v>
+        <v>505.475871973522</v>
       </c>
       <c r="I10">
-        <v>1476.894634070819</v>
+        <v>1404.322808964345</v>
       </c>
       <c r="J10">
-        <v>357.7930951135463</v>
+        <v>319.6753191288613</v>
       </c>
       <c r="K10">
-        <v>3140.18799485801</v>
+        <v>2913.43402544876</v>
       </c>
       <c r="L10">
-        <v>25460.75053403873</v>
+        <v>23849.05709762788</v>
       </c>
       <c r="M10">
-        <v>74633</v>
+        <v>74752</v>
       </c>
       <c r="N10">
-        <v>665614.6156493073</v>
+        <v>584873.2924792579</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>81713.42082933028</v>
+        <v>126164.3856688309</v>
       </c>
       <c r="C2">
-        <v>209331.5146913387</v>
+        <v>173691.2018284847</v>
       </c>
       <c r="D2">
-        <v>45447.2193151285</v>
+        <v>50888.46396309303</v>
       </c>
       <c r="E2">
-        <v>102718.8302365146</v>
+        <v>106789.5218456779</v>
       </c>
       <c r="F2">
-        <v>30704.55796850771</v>
+        <v>32647.55817709521</v>
       </c>
       <c r="G2">
-        <v>59920.58922281295</v>
+        <v>63410.96103557143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>104390.2711137563</v>
+        <v>107832.1031784475</v>
       </c>
       <c r="M2">
-        <v>493959</v>
+        <v>482158</v>
       </c>
       <c r="N2">
-        <v>-666447.474121045</v>
+        <v>-1771974.217653017</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>154755.5498823842</v>
+        <v>370356.4476432937</v>
       </c>
       <c r="C3">
-        <v>1122003.939511045</v>
+        <v>1123642.666942821</v>
       </c>
       <c r="D3">
-        <v>176375.9421481215</v>
+        <v>222694.2805031927</v>
       </c>
       <c r="E3">
-        <v>462384.9881258891</v>
+        <v>542070.9584863047</v>
       </c>
       <c r="F3">
-        <v>366824.5813398941</v>
+        <v>407309.9862352163</v>
       </c>
       <c r="G3">
-        <v>64291.99995659117</v>
+        <v>64568.89510669051</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>464300.7535408283</v>
+        <v>539527.9978741551</v>
       </c>
       <c r="M3">
-        <v>1978698</v>
+        <v>1908521</v>
       </c>
       <c r="N3">
-        <v>2196189.057371493</v>
+        <v>-3376968.119688379</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>132740.712749914</v>
+        <v>202321.944253508</v>
       </c>
       <c r="C4">
-        <v>971195.6606202568</v>
+        <v>1032789.818620056</v>
       </c>
       <c r="D4">
-        <v>129672.719706069</v>
+        <v>144963.7364611912</v>
       </c>
       <c r="E4">
-        <v>437894.8024607493</v>
+        <v>497911.3355670046</v>
       </c>
       <c r="F4">
-        <v>340377.0632997038</v>
+        <v>359063.1260869047</v>
       </c>
       <c r="G4">
-        <v>17795.53694012826</v>
+        <v>17093.31363413405</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>398664.5514456653</v>
+        <v>432653.1324859021</v>
       </c>
       <c r="M4">
-        <v>1845899</v>
+        <v>1889497</v>
       </c>
       <c r="N4">
-        <v>-1530145.442196426</v>
+        <v>-3598328.473917802</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1133965.383706478</v>
+        <v>1319219.543874883</v>
       </c>
       <c r="C5">
-        <v>8932415.381445373</v>
+        <v>9432529.052794624</v>
       </c>
       <c r="D5">
-        <v>481218.4120266105</v>
+        <v>578261.8886768896</v>
       </c>
       <c r="E5">
-        <v>4555766.163799621</v>
+        <v>5022680.103990881</v>
       </c>
       <c r="F5">
-        <v>1144495.852365029</v>
+        <v>1225877.166913188</v>
       </c>
       <c r="G5">
-        <v>2136598.109062613</v>
+        <v>2189371.891411028</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3649971.26323451</v>
+        <v>3835450.592618194</v>
       </c>
       <c r="M5">
-        <v>16715159</v>
+        <v>16592698</v>
       </c>
       <c r="N5">
-        <v>-15846228.12150308</v>
+        <v>-20436089.77884024</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2495139.270411274</v>
+        <v>2678802.235000358</v>
       </c>
       <c r="C6">
-        <v>12123713.65611276</v>
+        <v>11985090.93287172</v>
       </c>
       <c r="D6">
-        <v>121977.578919976</v>
+        <v>120216.5409299204</v>
       </c>
       <c r="E6">
-        <v>1965858.836776672</v>
+        <v>1899651.385322116</v>
       </c>
       <c r="F6">
-        <v>3747.895591583234</v>
+        <v>2688.019336502487</v>
       </c>
       <c r="G6">
-        <v>18682.26057266737</v>
+        <v>18513.97190618839</v>
       </c>
       <c r="H6">
-        <v>28941.99265165971</v>
+        <v>32778.57395031787</v>
       </c>
       <c r="I6">
-        <v>88507.63689772568</v>
+        <v>92217.43862775799</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4769974.999857456</v>
+        <v>4823800.772312711</v>
       </c>
       <c r="M6">
-        <v>18649459</v>
+        <v>18894452</v>
       </c>
       <c r="N6">
-        <v>-81975132.65373722</v>
+        <v>-83150891.75703137</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>216554.5930739017</v>
+        <v>176563.266501961</v>
       </c>
       <c r="C7">
-        <v>533330.5048762292</v>
+        <v>572392.7046765155</v>
       </c>
       <c r="D7">
-        <v>13363.99577478255</v>
+        <v>16320.09426220185</v>
       </c>
       <c r="E7">
-        <v>231345.8793858651</v>
+        <v>253492.7913824112</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3067.210113959789</v>
+        <v>3153.720010741634</v>
       </c>
       <c r="I7">
-        <v>29023.05524100068</v>
+        <v>28673.69373722013</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>424512.0270158291</v>
+        <v>430737.9390276206</v>
       </c>
       <c r="M7">
-        <v>1316320</v>
+        <v>1293199</v>
       </c>
       <c r="N7">
-        <v>-7426344.351537578</v>
+        <v>-5090446.900135092</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>297388.2308470646</v>
+        <v>73921.97731204861</v>
       </c>
       <c r="C8">
-        <v>734698.2589505453</v>
+        <v>868547.6463691593</v>
       </c>
       <c r="D8">
-        <v>13613.70703454219</v>
+        <v>13332.5334788601</v>
       </c>
       <c r="E8">
-        <v>333247.2328662757</v>
+        <v>323535.1734531521</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>414.6002428667867</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>42269.01823739838</v>
+        <v>41934.36343044306</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>589855.8092549265</v>
+        <v>553276.668324528</v>
       </c>
       <c r="M8">
-        <v>1725812</v>
+        <v>1750829</v>
       </c>
       <c r="N8">
-        <v>-13027286.90410081</v>
+        <v>596773.9453163131</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>409565.6482629338</v>
+        <v>127835.8431337425</v>
       </c>
       <c r="C9">
-        <v>1011801.823302524</v>
+        <v>1159158.538727236</v>
       </c>
       <c r="D9">
-        <v>31422.06035645648</v>
+        <v>31289.61305831865</v>
       </c>
       <c r="E9">
-        <v>443264.9761367242</v>
+        <v>426125.1041106441</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7031.933879770537</v>
+        <v>5229.056286106441</v>
       </c>
       <c r="I9">
-        <v>49588.21923238718</v>
+        <v>47618.0998232898</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>109853.8782946166</v>
+        <v>98997.98822051805</v>
       </c>
       <c r="L9">
-        <v>819014.9155127716</v>
+        <v>751842.3456269886</v>
       </c>
       <c r="M9">
-        <v>2139047</v>
+        <v>2128893</v>
       </c>
       <c r="N9">
-        <v>-9789781.278131295</v>
+        <v>1699719.576018669</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -852,58 +852,6 @@
         </is>
       </c>
       <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>10982.51925010969</v>
-      </c>
-      <c r="C10">
-        <v>30181.67853248671</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>13596.36173699118</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>505.475871973522</v>
-      </c>
-      <c r="I10">
-        <v>1404.322808964345</v>
-      </c>
-      <c r="J10">
-        <v>319.6753191288613</v>
-      </c>
-      <c r="K10">
-        <v>2913.43402544876</v>
-      </c>
-      <c r="L10">
-        <v>23849.05709762788</v>
-      </c>
-      <c r="M10">
-        <v>74752</v>
-      </c>
-      <c r="N10">
-        <v>584873.2924792579</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="P10">
         <v>1</v>
       </c>
     </row>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>126164.3856688309</v>
+        <v>97791.50146289001</v>
       </c>
       <c r="C2">
-        <v>173691.2018284847</v>
+        <v>206192.9197047516</v>
       </c>
       <c r="D2">
-        <v>50888.46396309303</v>
+        <v>54574.06601190825</v>
       </c>
       <c r="E2">
-        <v>106789.5218456779</v>
+        <v>100137.8837137687</v>
       </c>
       <c r="F2">
-        <v>32647.55817709521</v>
+        <v>31833.05083508593</v>
       </c>
       <c r="G2">
-        <v>63410.96103557143</v>
+        <v>63132.75858949703</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>107832.1031784475</v>
+        <v>109722.4719654741</v>
       </c>
       <c r="M2">
-        <v>482158</v>
+        <v>476120</v>
       </c>
       <c r="N2">
-        <v>-1771974.217653017</v>
+        <v>-1046493.609021335</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>370356.4476432937</v>
+        <v>249496.2783130891</v>
       </c>
       <c r="C3">
-        <v>1123642.666942821</v>
+        <v>1089098.516706366</v>
       </c>
       <c r="D3">
-        <v>222694.2805031927</v>
+        <v>215849.5717069058</v>
       </c>
       <c r="E3">
-        <v>542070.9584863047</v>
+        <v>492305.2656269623</v>
       </c>
       <c r="F3">
-        <v>407309.9862352163</v>
+        <v>369104.2830784654</v>
       </c>
       <c r="G3">
-        <v>64568.89510669051</v>
+        <v>53272.12446800849</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>539527.9978741551</v>
+        <v>486495.439728544</v>
       </c>
       <c r="M3">
-        <v>1908521</v>
+        <v>1870714</v>
       </c>
       <c r="N3">
-        <v>-3376968.119688379</v>
+        <v>-716222.7301607275</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>202321.944253508</v>
+        <v>85680.07427468184</v>
       </c>
       <c r="C4">
-        <v>1032789.818620056</v>
+        <v>972671.2431518895</v>
       </c>
       <c r="D4">
-        <v>144963.7364611912</v>
+        <v>147560.4115285992</v>
       </c>
       <c r="E4">
-        <v>497911.3355670046</v>
+        <v>399813.7662954091</v>
       </c>
       <c r="F4">
-        <v>359063.1260869047</v>
+        <v>325683.7677120395</v>
       </c>
       <c r="G4">
-        <v>17093.31363413405</v>
+        <v>10013.25538448831</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>432653.1324859021</v>
+        <v>385382.667705094</v>
       </c>
       <c r="M4">
-        <v>1889497</v>
+        <v>1932317</v>
       </c>
       <c r="N4">
-        <v>-3598328.473917802</v>
+        <v>-341736.8381795093</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1319219.543874883</v>
+        <v>690651.8523408428</v>
       </c>
       <c r="C5">
-        <v>9432529.052794624</v>
+        <v>8890305.278630575</v>
       </c>
       <c r="D5">
-        <v>578261.8886768896</v>
+        <v>562523.3985945768</v>
       </c>
       <c r="E5">
-        <v>5022680.103990881</v>
+        <v>4427566.265199085</v>
       </c>
       <c r="F5">
-        <v>1225877.166913188</v>
+        <v>1076728.137650052</v>
       </c>
       <c r="G5">
-        <v>2189371.891411028</v>
+        <v>1982108.163857436</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3835450.592618194</v>
+        <v>3461628.614725263</v>
       </c>
       <c r="M5">
-        <v>16592698</v>
+        <v>16697283</v>
       </c>
       <c r="N5">
-        <v>-20436089.77884024</v>
+        <v>-6444102.467183247</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2678802.235000358</v>
+        <v>1577866.834860745</v>
       </c>
       <c r="C6">
-        <v>11985090.93287172</v>
+        <v>12432598.27774997</v>
       </c>
       <c r="D6">
-        <v>120216.5409299204</v>
+        <v>128174.3377284668</v>
       </c>
       <c r="E6">
-        <v>1899651.385322116</v>
+        <v>1907242.745205192</v>
       </c>
       <c r="F6">
-        <v>2688.019336502487</v>
+        <v>3817.897577836115</v>
       </c>
       <c r="G6">
-        <v>18513.97190618839</v>
+        <v>21605.44138834104</v>
       </c>
       <c r="H6">
-        <v>32778.57395031787</v>
+        <v>32778.9917994807</v>
       </c>
       <c r="I6">
-        <v>92217.43862775799</v>
+        <v>91141.59419671883</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4823800.772312711</v>
+        <v>4686544.710856745</v>
       </c>
       <c r="M6">
-        <v>18894452</v>
+        <v>19312072</v>
       </c>
       <c r="N6">
-        <v>-83150891.75703137</v>
+        <v>-29758069.59266441</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>176563.266501961</v>
+        <v>129989.6252245399</v>
       </c>
       <c r="C7">
-        <v>572392.7046765155</v>
+        <v>602282.9757232476</v>
       </c>
       <c r="D7">
-        <v>16320.09426220185</v>
+        <v>13872.81157170326</v>
       </c>
       <c r="E7">
-        <v>253492.7913824112</v>
+        <v>225912.13391671</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3153.720010741634</v>
+        <v>3353.7979072207</v>
       </c>
       <c r="I7">
-        <v>28673.69373722013</v>
+        <v>30677.64210816118</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>430737.9390276206</v>
+        <v>416409.0103184847</v>
       </c>
       <c r="M7">
-        <v>1293199</v>
+        <v>1287341</v>
       </c>
       <c r="N7">
-        <v>-5090446.900135092</v>
+        <v>-2361478.362143943</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>73921.97731204861</v>
+        <v>97351.82488244612</v>
       </c>
       <c r="C8">
-        <v>868547.6463691593</v>
+        <v>857112.1865179136</v>
       </c>
       <c r="D8">
-        <v>13332.5334788601</v>
+        <v>12901.17320300334</v>
       </c>
       <c r="E8">
-        <v>323535.1734531521</v>
+        <v>321034.5815019154</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>41934.36343044306</v>
+        <v>37760.90869547684</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>553276.668324528</v>
+        <v>548934.9393763144</v>
       </c>
       <c r="M8">
-        <v>1750829</v>
+        <v>1730015</v>
       </c>
       <c r="N8">
-        <v>596773.9453163131</v>
+        <v>-1310002.531250613</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>127835.8431337425</v>
+        <v>168136.1996171644</v>
       </c>
       <c r="C9">
-        <v>1159158.538727236</v>
+        <v>1150413.408230822</v>
       </c>
       <c r="D9">
-        <v>31289.61305831865</v>
+        <v>31505.68982375547</v>
       </c>
       <c r="E9">
-        <v>426125.1041106441</v>
+        <v>432528.415419709</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5229.056286106441</v>
+        <v>6908.56085161842</v>
       </c>
       <c r="I9">
-        <v>47618.0998232898</v>
+        <v>50938.95350490142</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>98997.98822051805</v>
+        <v>101915.7826889322</v>
       </c>
       <c r="L9">
-        <v>751842.3456269886</v>
+        <v>766580.3716188161</v>
       </c>
       <c r="M9">
-        <v>2128893</v>
+        <v>2127316</v>
       </c>
       <c r="N9">
-        <v>1699719.576018669</v>
+        <v>-730393.7643646738</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>97791.50146289001</v>
+        <v>182254.3736972502</v>
       </c>
       <c r="C2">
-        <v>206192.9197047516</v>
+        <v>151893.0518049554</v>
       </c>
       <c r="D2">
-        <v>54574.06601190825</v>
+        <v>62755.3576089744</v>
       </c>
       <c r="E2">
-        <v>100137.8837137687</v>
+        <v>114130.9399016776</v>
       </c>
       <c r="F2">
-        <v>31833.05083508593</v>
+        <v>34764.82301920529</v>
       </c>
       <c r="G2">
-        <v>63132.75858949703</v>
+        <v>69043.96513052752</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>109722.4719654741</v>
+        <v>119759.6573002258</v>
       </c>
       <c r="M2">
         <v>476120</v>
       </c>
       <c r="N2">
-        <v>-1046493.609021335</v>
+        <v>-2902623.09183835</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>249496.2783130891</v>
+        <v>342429.3398963325</v>
       </c>
       <c r="C3">
-        <v>1089098.516706366</v>
+        <v>1027641.30282144</v>
       </c>
       <c r="D3">
-        <v>215849.5717069058</v>
+        <v>219277.081236334</v>
       </c>
       <c r="E3">
-        <v>492305.2656269623</v>
+        <v>462164.0399398248</v>
       </c>
       <c r="F3">
-        <v>369104.2830784654</v>
+        <v>379963.4759659416</v>
       </c>
       <c r="G3">
-        <v>53272.12446800849</v>
+        <v>55064.36915698943</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>486495.439728544</v>
+        <v>500077.3458097563</v>
       </c>
       <c r="M3">
         <v>1870714</v>
       </c>
       <c r="N3">
-        <v>-716222.7301607275</v>
+        <v>-3202769.809684515</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>85680.07427468184</v>
+        <v>198376.4544156353</v>
       </c>
       <c r="C4">
-        <v>972671.2431518895</v>
+        <v>931364.2682337116</v>
       </c>
       <c r="D4">
-        <v>147560.4115285992</v>
+        <v>155738.5575611625</v>
       </c>
       <c r="E4">
-        <v>399813.7662954091</v>
+        <v>423272.1055467464</v>
       </c>
       <c r="F4">
-        <v>325683.7677120395</v>
+        <v>343793.9949011839</v>
       </c>
       <c r="G4">
-        <v>10013.25538448831</v>
+        <v>10500.1466368323</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>385382.667705094</v>
+        <v>407205.8579777434</v>
       </c>
       <c r="M4">
         <v>1932317</v>
       </c>
       <c r="N4">
-        <v>-341736.8381795093</v>
+        <v>-3649205.267098323</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>690651.8523408428</v>
+        <v>1153143.510197318</v>
       </c>
       <c r="C5">
-        <v>8890305.278630575</v>
+        <v>8583356.999522314</v>
       </c>
       <c r="D5">
-        <v>562523.3985945768</v>
+        <v>581369.2709010674</v>
       </c>
       <c r="E5">
-        <v>4427566.265199085</v>
+        <v>4473205.246548154</v>
       </c>
       <c r="F5">
-        <v>1076728.137650052</v>
+        <v>1110224.413824513</v>
       </c>
       <c r="G5">
-        <v>1982108.163857436</v>
+        <v>2036099.364222452</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3461628.614725263</v>
+        <v>3555370.899690821</v>
       </c>
       <c r="M5">
         <v>16697283</v>
       </c>
       <c r="N5">
-        <v>-6444102.467183247</v>
+        <v>-20899332.25343982</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1577866.834860745</v>
+        <v>3073535.827925881</v>
       </c>
       <c r="C6">
-        <v>12432598.27774997</v>
+        <v>11986361.03160422</v>
       </c>
       <c r="D6">
-        <v>128174.3377284668</v>
+        <v>129592.9103568362</v>
       </c>
       <c r="E6">
-        <v>1907242.745205192</v>
+        <v>2005524.677776457</v>
       </c>
       <c r="F6">
-        <v>3817.897577836115</v>
+        <v>4072.4806395618</v>
       </c>
       <c r="G6">
-        <v>21605.44138834104</v>
+        <v>23224.77990687716</v>
       </c>
       <c r="H6">
-        <v>32778.9917994807</v>
+        <v>34881.47014419564</v>
       </c>
       <c r="I6">
-        <v>91141.59419671883</v>
+        <v>97575.03620374543</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4686544.710856745</v>
+        <v>5030785.259659421</v>
       </c>
       <c r="M6">
         <v>19312072</v>
       </c>
       <c r="N6">
-        <v>-29758069.59266441</v>
+        <v>-107069974.8612358</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>129989.6252245399</v>
+        <v>188897.8821044955</v>
       </c>
       <c r="C7">
-        <v>602282.9757232476</v>
+        <v>565496.7335720476</v>
       </c>
       <c r="D7">
-        <v>13872.81157170326</v>
+        <v>15103.38366958705</v>
       </c>
       <c r="E7">
-        <v>225912.13391671</v>
+        <v>237786.7818006309</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3353.7979072207</v>
+        <v>3438.630725903161</v>
       </c>
       <c r="I7">
-        <v>30677.64210816118</v>
+        <v>31512.84208492943</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>416409.0103184847</v>
+        <v>429080.3196151767</v>
       </c>
       <c r="M7">
         <v>1287341</v>
       </c>
       <c r="N7">
-        <v>-2361478.362143943</v>
+        <v>-5512409.933681422</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>97351.82488244612</v>
+        <v>119773.535935784</v>
       </c>
       <c r="C8">
-        <v>857112.1865179136</v>
+        <v>836578.7910127238</v>
       </c>
       <c r="D8">
-        <v>12901.17320300334</v>
+        <v>13636.14454644389</v>
       </c>
       <c r="E8">
-        <v>321034.5815019154</v>
+        <v>323892.3258553279</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37760.90869547684</v>
+        <v>38078.5820621863</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>548934.9393763144</v>
+        <v>554999.5459221107</v>
       </c>
       <c r="M8">
         <v>1730015</v>
       </c>
       <c r="N8">
-        <v>-1310002.531250613</v>
+        <v>-3069857.358858988</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>168136.1996171644</v>
+        <v>202234.8876183375</v>
       </c>
       <c r="C9">
-        <v>1150413.408230822</v>
+        <v>1149890.666648876</v>
       </c>
       <c r="D9">
-        <v>31505.68982375547</v>
+        <v>30116.04890135345</v>
       </c>
       <c r="E9">
-        <v>432528.415419709</v>
+        <v>407004.6630420301</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6908.56085161842</v>
+        <v>6939.54417417106</v>
       </c>
       <c r="I9">
-        <v>50938.95350490142</v>
+        <v>51289.10659375732</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>101915.7826889322</v>
+        <v>102930.7367642276</v>
       </c>
       <c r="L9">
-        <v>766580.3716188161</v>
+        <v>772374.0044918191</v>
       </c>
       <c r="M9">
         <v>2127316</v>
       </c>
       <c r="N9">
-        <v>-730393.7643646738</v>
+        <v>-2417439.500365156</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>182254.3736972502</v>
+        <v>208288.1093214861</v>
       </c>
       <c r="C2">
-        <v>151893.0518049554</v>
+        <v>170822.8913195609</v>
       </c>
       <c r="D2">
-        <v>62755.3576089744</v>
+        <v>62521.79471037847</v>
       </c>
       <c r="E2">
-        <v>114130.9399016776</v>
+        <v>117072.5948614932</v>
       </c>
       <c r="F2">
-        <v>34764.82301920529</v>
+        <v>35577.9025409913</v>
       </c>
       <c r="G2">
-        <v>69043.96513052752</v>
+        <v>70687.04453069466</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>119759.6573002258</v>
+        <v>122321.3072553063</v>
       </c>
       <c r="M2">
         <v>476120</v>
       </c>
       <c r="N2">
-        <v>-2902623.09183835</v>
+        <v>-3499638.465402045</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>342429.3398963325</v>
+        <v>431093.5056224119</v>
       </c>
       <c r="C3">
-        <v>1027641.30282144</v>
+        <v>1093118.311922449</v>
       </c>
       <c r="D3">
-        <v>219277.081236334</v>
+        <v>225821.4896423041</v>
       </c>
       <c r="E3">
-        <v>462164.0399398248</v>
+        <v>509914.6891367009</v>
       </c>
       <c r="F3">
-        <v>379963.4759659416</v>
+        <v>386703.7079343622</v>
       </c>
       <c r="G3">
-        <v>55064.36915698943</v>
+        <v>55826.24619673948</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>500077.3458097563</v>
+        <v>512214.2195900829</v>
       </c>
       <c r="M3">
         <v>1870714</v>
       </c>
       <c r="N3">
-        <v>-3202769.809684515</v>
+        <v>-5496968.87843897</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>198376.4544156353</v>
+        <v>253272.0367212155</v>
       </c>
       <c r="C4">
-        <v>931364.2682337116</v>
+        <v>1001624.701105752</v>
       </c>
       <c r="D4">
-        <v>155738.5575611625</v>
+        <v>166660.8766984713</v>
       </c>
       <c r="E4">
-        <v>423272.1055467464</v>
+        <v>444450.3497140185</v>
       </c>
       <c r="F4">
-        <v>343793.9949011839</v>
+        <v>354815.8431065478</v>
       </c>
       <c r="G4">
-        <v>10500.1466368323</v>
+        <v>10822.71173867649</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>407205.8579777434</v>
+        <v>420038.7134289166</v>
       </c>
       <c r="M4">
         <v>1932317</v>
       </c>
       <c r="N4">
-        <v>-3649205.267098323</v>
+        <v>-5788240.315208567</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1153143.510197318</v>
+        <v>1405503.465923228</v>
       </c>
       <c r="C5">
-        <v>8583356.999522314</v>
+        <v>8795752.072357923</v>
       </c>
       <c r="D5">
-        <v>581369.2709010674</v>
+        <v>597387.2283510714</v>
       </c>
       <c r="E5">
-        <v>4473205.246548154</v>
+        <v>4466904.74047751</v>
       </c>
       <c r="F5">
-        <v>1110224.413824513</v>
+        <v>1126550.960547142</v>
       </c>
       <c r="G5">
-        <v>2036099.364222452</v>
+        <v>2072656.774596454</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3555370.899690821</v>
+        <v>3609971.568350889</v>
       </c>
       <c r="M5">
         <v>16697283</v>
       </c>
       <c r="N5">
-        <v>-20899332.25343982</v>
+        <v>-29621834.77688332</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -652,28 +652,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3073535.827925881</v>
+        <v>3727456.063827594</v>
       </c>
       <c r="C6">
-        <v>11986361.03160422</v>
+        <v>12192345.49092561</v>
       </c>
       <c r="D6">
-        <v>129592.9103568362</v>
+        <v>136107.0951525896</v>
       </c>
       <c r="E6">
-        <v>2005524.677776457</v>
+        <v>2147528.242679841</v>
       </c>
       <c r="F6">
-        <v>4072.4806395618</v>
+        <v>4524.887360215092</v>
       </c>
       <c r="G6">
-        <v>23224.77990687716</v>
+        <v>24946.15199850264</v>
       </c>
       <c r="H6">
-        <v>34881.47014419564</v>
+        <v>35734.40095806841</v>
       </c>
       <c r="I6">
-        <v>97575.03620374543</v>
+        <v>99216.26787116795</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5030785.259659421</v>
+        <v>5165466.785661865</v>
       </c>
       <c r="M6">
         <v>19312072</v>
       </c>
       <c r="N6">
-        <v>-107069974.8612358</v>
+        <v>-141917304.8659462</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -704,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>188897.8821044955</v>
+        <v>233613.2533515951</v>
       </c>
       <c r="C7">
-        <v>565496.7335720476</v>
+        <v>533932.6432442088</v>
       </c>
       <c r="D7">
-        <v>15103.38366958705</v>
+        <v>14727.80870903994</v>
       </c>
       <c r="E7">
-        <v>237786.7818006309</v>
+        <v>234618.833461908</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3438.630725903161</v>
+        <v>3556.575158786499</v>
       </c>
       <c r="I7">
-        <v>31512.84208492943</v>
+        <v>32433.59884212909</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>429080.3196151767</v>
+        <v>438703.4773529737</v>
       </c>
       <c r="M7">
         <v>1287341</v>
       </c>
       <c r="N7">
-        <v>-5512409.933681422</v>
+        <v>-7977692.689711505</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -756,16 +756,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>119773.535935784</v>
+        <v>152768.8894643729</v>
       </c>
       <c r="C8">
-        <v>836578.7910127238</v>
+        <v>719504.4479436238</v>
       </c>
       <c r="D8">
-        <v>13636.14454644389</v>
+        <v>12968.42696170176</v>
       </c>
       <c r="E8">
-        <v>323892.3258553279</v>
+        <v>307883.601868791</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>38078.5820621863</v>
+        <v>38624.12527791982</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>554999.5459221107</v>
+        <v>563073.1913318165</v>
       </c>
       <c r="M8">
         <v>1730015</v>
       </c>
       <c r="N8">
-        <v>-3069857.358858988</v>
+        <v>-4766305.285245009</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>202234.8876183375</v>
+        <v>255236.8724810393</v>
       </c>
       <c r="C9">
-        <v>1149890.666648876</v>
+        <v>973354.123126987</v>
       </c>
       <c r="D9">
-        <v>30116.04890135345</v>
+        <v>30177.47277026055</v>
       </c>
       <c r="E9">
-        <v>407004.6630420301</v>
+        <v>416271.3840954166</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6939.54417417106</v>
+        <v>6977.781392531348</v>
       </c>
       <c r="I9">
-        <v>51289.10659375732</v>
+        <v>51635.67297793939</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>102930.7367642276</v>
+        <v>103376.0496297924</v>
       </c>
       <c r="L9">
-        <v>772374.0044918191</v>
+        <v>776630.8551332452</v>
       </c>
       <c r="M9">
         <v>2127316</v>
       </c>
       <c r="N9">
-        <v>-2417439.500365156</v>
+        <v>-3799731.375243272</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:BH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,295 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>parameter_draw</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_11</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_12</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_13</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_14</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_15</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_16</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_17</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_18</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_19</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_20</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_22</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_18</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_19</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_20</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_22</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_23</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_24</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>tot_keep</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>tot_rel</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tot_bsb_catch</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>tot_keep_bsb</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_bsb</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>tot_keep_scup</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_scup</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_23</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_24</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>change_CS</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>observed_trips</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>observed_trips_base</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>n_choice_occasions</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>alt_regs</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_8</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_9</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_10</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_21</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_21</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_25</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_26</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_27</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_27</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_25</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_30</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_26</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_28</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_28</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_6</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_7</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_29</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_29</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_31</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>tot_keep_wf</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_wf</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_31</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>tot_keep_rd</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_rd</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>observed_trips</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>n_choice_occasions</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>change_CS</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>state</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>draw</t>
         </is>
@@ -444,50 +664,182 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>208288.1093214861</v>
+        <v>99663.23485356061</v>
       </c>
       <c r="C2">
-        <v>170822.8913195609</v>
+        <v>16198.61083887716</v>
       </c>
       <c r="D2">
-        <v>62521.79471037847</v>
+        <v>16819.47948364973</v>
       </c>
       <c r="E2">
-        <v>117072.5948614932</v>
+        <v>17166.17092557854</v>
       </c>
       <c r="F2">
-        <v>35577.9025409913</v>
+        <v>3525.927189010131</v>
       </c>
       <c r="G2">
-        <v>70687.04453069466</v>
+        <v>32536.83565070587</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>92898.80970115877</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>42658.10653603906</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>508.7123012838803</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>159.7737638353417</v>
       </c>
       <c r="L2">
-        <v>122321.3072553063</v>
+        <v>338.0748661262873</v>
       </c>
       <c r="M2">
-        <v>476120</v>
+        <v>48.13863174308456</v>
       </c>
       <c r="N2">
-        <v>-3499638.465402045</v>
-      </c>
-      <c r="O2" t="inlineStr">
+        <v>22783.44210782078</v>
+      </c>
+      <c r="O2">
+        <v>7361.136547267716</v>
+      </c>
+      <c r="P2">
+        <v>15589.60786186951</v>
+      </c>
+      <c r="Q2">
+        <v>2427.065917538318</v>
+      </c>
+      <c r="R2">
+        <v>2068.619385323876</v>
+      </c>
+      <c r="S2">
+        <v>1135.083084650727</v>
+      </c>
+      <c r="T2">
+        <v>51364.95490447093</v>
+      </c>
+      <c r="U2">
+        <v>222919.6588321235</v>
+      </c>
+      <c r="V2">
+        <v>31880.14217558915</v>
+      </c>
+      <c r="W2">
+        <v>50895.75325273935</v>
+      </c>
+      <c r="X2">
+        <v>94093.29088778369</v>
+      </c>
+      <c r="Y2">
+        <v>30334.36933463717</v>
+      </c>
+      <c r="Z2">
+        <v>56917.50843306963</v>
+      </c>
+      <c r="AA2">
+        <v>45.9329640888478</v>
+      </c>
+      <c r="AB2">
+        <v>15.08598002680028</v>
+      </c>
+      <c r="AC2">
+        <v>-24824.44789018601</v>
+      </c>
+      <c r="AD2">
+        <v>99663.23485356061</v>
+      </c>
+      <c r="AE2">
+        <v>99446.18606037875</v>
+      </c>
+      <c r="AF2">
+        <v>474084</v>
+      </c>
+      <c r="AG2">
+        <v>11</v>
+      </c>
+      <c r="AH2">
+        <v>11</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="P2">
+      <c r="BH2">
         <v>1</v>
       </c>
     </row>
@@ -496,50 +848,182 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>431093.5056224119</v>
+        <v>484973.7613181347</v>
       </c>
       <c r="C3">
-        <v>1093118.311922449</v>
+        <v>27594.58292030157</v>
       </c>
       <c r="D3">
-        <v>225821.4896423041</v>
+        <v>81666.71145961451</v>
       </c>
       <c r="E3">
-        <v>509914.6891367009</v>
+        <v>136850.9419215504</v>
       </c>
       <c r="F3">
-        <v>386703.7079343622</v>
+        <v>134011.1168637649</v>
       </c>
       <c r="G3">
-        <v>55826.24619673948</v>
+        <v>207875.8969922504</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>186758.8026563805</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>190038.6180558105</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>77483.66208587667</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>32273.93926594978</v>
       </c>
       <c r="L3">
-        <v>512214.2195900829</v>
+        <v>140.318966566053</v>
       </c>
       <c r="M3">
-        <v>1870714</v>
+        <v>69.21276696746854</v>
       </c>
       <c r="N3">
-        <v>-5496968.87843897</v>
-      </c>
-      <c r="O3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>59098.15119985875</v>
+      </c>
+      <c r="Q3">
+        <v>11236.06800903611</v>
+      </c>
+      <c r="R3">
+        <v>7311.030036067754</v>
+      </c>
+      <c r="S3">
+        <v>29674.72216017185</v>
+      </c>
+      <c r="T3">
+        <v>221332.4164890419</v>
+      </c>
+      <c r="U3">
+        <v>1089077.05112929</v>
+      </c>
+      <c r="V3">
+        <v>152255.2240686332</v>
+      </c>
+      <c r="W3">
+        <v>210806.4728711189</v>
+      </c>
+      <c r="X3">
+        <v>474364.6667268813</v>
+      </c>
+      <c r="Y3">
+        <v>377764.08703539</v>
+      </c>
+      <c r="Z3">
+        <v>54195.84012063646</v>
+      </c>
+      <c r="AA3">
+        <v>76.51184927904576</v>
+      </c>
+      <c r="AB3">
+        <v>144.6889319891035</v>
+      </c>
+      <c r="AC3">
+        <v>497245.1232359805</v>
+      </c>
+      <c r="AD3">
+        <v>484973.7613181347</v>
+      </c>
+      <c r="AE3">
+        <v>486845.7167843499</v>
+      </c>
+      <c r="AF3">
+        <v>1952832</v>
+      </c>
+      <c r="AG3">
+        <v>12</v>
+      </c>
+      <c r="AH3">
+        <v>12</v>
+      </c>
+      <c r="AI3">
+        <v>2299.679355030241</v>
+      </c>
+      <c r="AJ3">
+        <v>2159.430641983816</v>
+      </c>
+      <c r="AK3">
+        <v>9130.043753604374</v>
+      </c>
+      <c r="AL3">
+        <v>379.8825626837557</v>
+      </c>
+      <c r="AM3">
+        <v>85020.23461046499</v>
+      </c>
+      <c r="AN3">
+        <v>2147.037965801588</v>
+      </c>
+      <c r="AO3">
+        <v>4881.713484381296</v>
+      </c>
+      <c r="AP3">
+        <v>21962.40068346942</v>
+      </c>
+      <c r="AQ3">
+        <v>93.34865506722164</v>
+      </c>
+      <c r="AR3">
+        <v>2.453340840793319</v>
+      </c>
+      <c r="AS3">
+        <v>1.058339790185649</v>
+      </c>
+      <c r="AT3">
+        <v>27.20808377903383</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="inlineStr">
         <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="P3">
+      <c r="BH3">
         <v>1</v>
       </c>
     </row>
@@ -548,50 +1032,182 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>253272.0367212155</v>
+        <v>428631.1014846841</v>
       </c>
       <c r="C4">
-        <v>1001624.701105752</v>
+        <v>23654.361323487</v>
       </c>
       <c r="D4">
-        <v>166660.8766984713</v>
+        <v>60095.58204075761</v>
       </c>
       <c r="E4">
-        <v>444450.3497140185</v>
+        <v>173951.6773858863</v>
       </c>
       <c r="F4">
-        <v>354815.8431065478</v>
+        <v>144897.2395672818</v>
       </c>
       <c r="G4">
-        <v>10822.71173867649</v>
+        <v>162130.5360806042</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>179003.2808739177</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>186798.1438172771</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>115668.0356152196</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>420038.7134289166</v>
+        <v>242.2209036606978</v>
       </c>
       <c r="M4">
-        <v>1932317</v>
+        <v>211.0163061916311</v>
       </c>
       <c r="N4">
-        <v>-5788240.315208567</v>
-      </c>
-      <c r="O4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>28291.69767011433</v>
+      </c>
+      <c r="Q4">
+        <v>24180.19970348101</v>
+      </c>
+      <c r="R4">
+        <v>12000.75908765704</v>
+      </c>
+      <c r="S4">
+        <v>4683.430045594848</v>
+      </c>
+      <c r="T4">
+        <v>96873.15036537092</v>
+      </c>
+      <c r="U4">
+        <v>1085906.495839277</v>
+      </c>
+      <c r="V4">
+        <v>144431.1551603815</v>
+      </c>
+      <c r="W4">
+        <v>162273.2245597824</v>
+      </c>
+      <c r="X4">
+        <v>446773.6530092244</v>
+      </c>
+      <c r="Y4">
+        <v>370333.6552774457</v>
+      </c>
+      <c r="Z4">
+        <v>11136.14788353094</v>
+      </c>
+      <c r="AA4">
+        <v>108.3445042510333</v>
+      </c>
+      <c r="AB4">
+        <v>42.8774434078952</v>
+      </c>
+      <c r="AC4">
+        <v>-80966.21190277164</v>
+      </c>
+      <c r="AD4">
+        <v>428631.1014846841</v>
+      </c>
+      <c r="AE4">
+        <v>428153.2377408551</v>
+      </c>
+      <c r="AF4">
+        <v>1904302</v>
+      </c>
+      <c r="AG4">
+        <v>12</v>
+      </c>
+      <c r="AH4">
+        <v>12</v>
+      </c>
+      <c r="AI4">
+        <v>8729.158532234602</v>
+      </c>
+      <c r="AJ4">
+        <v>15090.52993014722</v>
+      </c>
+      <c r="AK4">
+        <v>15065.81140702656</v>
+      </c>
+      <c r="AL4">
+        <v>213.7898050217749</v>
+      </c>
+      <c r="AM4">
+        <v>26147.44275572812</v>
+      </c>
+      <c r="AN4">
+        <v>520.3169754347831</v>
+      </c>
+      <c r="AO4">
+        <v>896.8120795006583</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>2.083684208027112</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>1.583752797867502</v>
+      </c>
+      <c r="AU4">
+        <v>152.4920478601335</v>
+      </c>
+      <c r="AV4">
+        <v>0.2228658987407751</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
       </c>
-      <c r="P4">
+      <c r="BH4">
         <v>1</v>
       </c>
     </row>
@@ -600,50 +1216,182 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1405503.465923228</v>
+        <v>3370922.805475109</v>
       </c>
       <c r="C5">
-        <v>8795752.072357923</v>
+        <v>449564.6832427088</v>
       </c>
       <c r="D5">
-        <v>597387.2283510714</v>
+        <v>630083.8642451726</v>
       </c>
       <c r="E5">
-        <v>4466904.74047751</v>
+        <v>1151147.910548545</v>
       </c>
       <c r="F5">
-        <v>1126550.960547142</v>
+        <v>1507835.07664621</v>
       </c>
       <c r="G5">
-        <v>2072656.774596454</v>
+        <v>1640072.741663835</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1341711.366649112</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1117412.582819165</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>415216.2779197142</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>165233.5025580331</v>
       </c>
       <c r="L5">
-        <v>3609971.568350889</v>
+        <v>9125.910465460851</v>
       </c>
       <c r="M5">
-        <v>16697283</v>
+        <v>6554.872893705289</v>
       </c>
       <c r="N5">
-        <v>-29621834.77688332</v>
-      </c>
-      <c r="O5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>128427.5112786908</v>
+      </c>
+      <c r="Q5">
+        <v>98078.58319078949</v>
+      </c>
+      <c r="R5">
+        <v>79336.61742545305</v>
+      </c>
+      <c r="S5">
+        <v>40951.35189347765</v>
+      </c>
+      <c r="T5">
+        <v>546678.3792664576</v>
+      </c>
+      <c r="U5">
+        <v>8729600.063404454</v>
+      </c>
+      <c r="V5">
+        <v>1032706.771511709</v>
+      </c>
+      <c r="W5">
+        <v>540890.35968029</v>
+      </c>
+      <c r="X5">
+        <v>4174700.095497102</v>
+      </c>
+      <c r="Y5">
+        <v>1056530.952447495</v>
+      </c>
+      <c r="Z5">
+        <v>1975410.136452621</v>
+      </c>
+      <c r="AA5">
+        <v>6165.972763905478</v>
+      </c>
+      <c r="AB5">
+        <v>2940.503313086831</v>
+      </c>
+      <c r="AC5">
+        <v>-673846.2298803694</v>
+      </c>
+      <c r="AD5">
+        <v>3370922.805475109</v>
+      </c>
+      <c r="AE5">
+        <v>3365070.356999897</v>
+      </c>
+      <c r="AF5">
+        <v>16700157</v>
+      </c>
+      <c r="AG5">
+        <v>15</v>
+      </c>
+      <c r="AH5">
+        <v>15</v>
+      </c>
+      <c r="AI5">
+        <v>62433.4285621333</v>
+      </c>
+      <c r="AJ5">
+        <v>46796.49367097557</v>
+      </c>
+      <c r="AK5">
+        <v>107226.2370048851</v>
+      </c>
+      <c r="AL5">
+        <v>5365.884624827003</v>
+      </c>
+      <c r="AM5">
+        <v>80600.66945206652</v>
+      </c>
+      <c r="AN5">
+        <v>65308.75222729878</v>
+      </c>
+      <c r="AO5">
+        <v>33732.32272875717</v>
+      </c>
+      <c r="AP5">
+        <v>8548.227019655353</v>
+      </c>
+      <c r="AQ5">
+        <v>774.6590182736559</v>
+      </c>
+      <c r="AR5">
+        <v>4022.457340527619</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1978.839930387324</v>
+      </c>
+      <c r="AU5">
+        <v>1852.874981677689</v>
+      </c>
+      <c r="AV5">
+        <v>111.8489192029696</v>
+      </c>
+      <c r="AW5">
+        <v>8649.950290440344</v>
+      </c>
+      <c r="AX5">
+        <v>48667.74203531785</v>
+      </c>
+      <c r="AY5">
+        <v>507.2562788301576</v>
+      </c>
+      <c r="AZ5">
+        <v>9841.469068591207</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="P5">
+      <c r="BH5">
         <v>1</v>
       </c>
     </row>
@@ -652,50 +1400,182 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3727456.063827594</v>
+        <v>4702172.270878015</v>
       </c>
       <c r="C6">
-        <v>12192345.49092561</v>
+        <v>897700.900651911</v>
       </c>
       <c r="D6">
-        <v>136107.0951525896</v>
+        <v>1586517.173706307</v>
       </c>
       <c r="E6">
-        <v>2147528.242679841</v>
+        <v>1425118.327644181</v>
       </c>
       <c r="F6">
-        <v>4524.887360215092</v>
+        <v>1952718.055454764</v>
       </c>
       <c r="G6">
-        <v>24946.15199850264</v>
+        <v>2103114.90268756</v>
       </c>
       <c r="H6">
-        <v>35734.40095806841</v>
+        <v>1969544.780018205</v>
       </c>
       <c r="I6">
-        <v>99216.26787116795</v>
+        <v>1749725.325353057</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>539645.0895644981</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17807.93736478757</v>
       </c>
       <c r="L6">
-        <v>5165466.785661865</v>
+        <v>8437.911744242882</v>
       </c>
       <c r="M6">
-        <v>19312072</v>
+        <v>2470.450106835877</v>
       </c>
       <c r="N6">
-        <v>-141917304.8659462</v>
-      </c>
-      <c r="O6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>428100.3787505953</v>
+      </c>
+      <c r="P6">
+        <v>254875.5078819041</v>
+      </c>
+      <c r="Q6">
+        <v>62935.42780216768</v>
+      </c>
+      <c r="R6">
+        <v>32638.25756834761</v>
+      </c>
+      <c r="S6">
+        <v>117289.8438030271</v>
+      </c>
+      <c r="T6">
+        <v>1085300.715660683</v>
+      </c>
+      <c r="U6">
+        <v>12824380.08144408</v>
+      </c>
+      <c r="V6">
+        <v>473399.8503193844</v>
+      </c>
+      <c r="W6">
+        <v>120927.7769702202</v>
+      </c>
+      <c r="X6">
+        <v>1790372.875828313</v>
+      </c>
+      <c r="Y6">
+        <v>2030.416425318842</v>
+      </c>
+      <c r="Z6">
+        <v>20401.402245922</v>
+      </c>
+      <c r="AA6">
+        <v>1056.248746790617</v>
+      </c>
+      <c r="AB6">
+        <v>4198.16810810046</v>
+      </c>
+      <c r="AC6">
+        <v>2568333.205766956</v>
+      </c>
+      <c r="AD6">
+        <v>4702172.270878015</v>
+      </c>
+      <c r="AE6">
+        <v>4715301.763718555</v>
+      </c>
+      <c r="AF6">
+        <v>19524823</v>
+      </c>
+      <c r="AG6">
+        <v>15</v>
+      </c>
+      <c r="AH6">
+        <v>15</v>
+      </c>
+      <c r="AI6">
+        <v>14128.48578856734</v>
+      </c>
+      <c r="AJ6">
+        <v>74220.70144718562</v>
+      </c>
+      <c r="AK6">
+        <v>456426.1207444263</v>
+      </c>
+      <c r="AL6">
+        <v>5783.747393625543</v>
+      </c>
+      <c r="AM6">
+        <v>142157.2699504638</v>
+      </c>
+      <c r="AN6">
+        <v>10553.32000717757</v>
+      </c>
+      <c r="AO6">
+        <v>17557.72567023122</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>418.8695779550866</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>513.3432549780348</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>7970.730831598482</v>
+      </c>
+      <c r="AX6">
+        <v>6224.202599089212</v>
+      </c>
+      <c r="AY6">
+        <v>144.3713942364766</v>
+      </c>
+      <c r="AZ6">
+        <v>7067.717798586501</v>
+      </c>
+      <c r="BA6">
+        <v>494.2372611776248</v>
+      </c>
+      <c r="BB6">
+        <v>34433.68331459697</v>
+      </c>
+      <c r="BC6">
+        <v>86261.34969575508</v>
+      </c>
+      <c r="BD6">
+        <v>12125.26642818248</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="inlineStr">
         <is>
           <t>NJ</t>
         </is>
       </c>
-      <c r="P6">
+      <c r="BH6">
         <v>1</v>
       </c>
     </row>
@@ -704,50 +1584,182 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>233613.2533515951</v>
+        <v>381733.0632351546</v>
       </c>
       <c r="C7">
-        <v>533932.6432442088</v>
+        <v>25950.42864762727</v>
       </c>
       <c r="D7">
-        <v>14727.80870903994</v>
+        <v>71141.56276720401</v>
       </c>
       <c r="E7">
-        <v>234618.833461908</v>
+        <v>114569.5411205737</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>142488.92972808</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>122868.7243030363</v>
       </c>
       <c r="H7">
-        <v>3556.575158786499</v>
+        <v>51351.20032467913</v>
       </c>
       <c r="I7">
-        <v>32433.59884212909</v>
+        <v>33465.79987964116</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>103.8976112247469</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>25.55608964345642</v>
       </c>
       <c r="L7">
-        <v>438703.4773529737</v>
+        <v>8.995852256949553</v>
       </c>
       <c r="M7">
-        <v>1287341</v>
+        <v>15.80708381002525</v>
       </c>
       <c r="N7">
-        <v>-7977692.689711505</v>
-      </c>
-      <c r="O7" t="inlineStr">
+        <v>38528.42290762762</v>
+      </c>
+      <c r="O7">
+        <v>25581.30803581438</v>
+      </c>
+      <c r="P7">
+        <v>10168.62625862405</v>
+      </c>
+      <c r="Q7">
+        <v>7713.924249702354</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>4.744334119129614</v>
+      </c>
+      <c r="T7">
+        <v>83041.32548919441</v>
+      </c>
+      <c r="U7">
+        <v>581340.4132013792</v>
+      </c>
+      <c r="V7">
+        <v>49495.30051742854</v>
+      </c>
+      <c r="W7">
+        <v>13426.14337579598</v>
+      </c>
+      <c r="X7">
+        <v>214618.3227565947</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>338786.3443942785</v>
+      </c>
+      <c r="AD7">
+        <v>381733.0632351546</v>
+      </c>
+      <c r="AE7">
+        <v>382973.5319692278</v>
+      </c>
+      <c r="AF7">
+        <v>1276292</v>
+      </c>
+      <c r="AG7">
+        <v>16</v>
+      </c>
+      <c r="AH7">
+        <v>16</v>
+      </c>
+      <c r="AI7">
+        <v>6578.375948219849</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>12771.59384538276</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>671.3568186712732</v>
+      </c>
+      <c r="AN7">
+        <v>372.9428846356038</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>2683.097423146894</v>
+      </c>
+      <c r="BC7">
+        <v>23342.11856874702</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="P7">
+      <c r="BH7">
         <v>1</v>
       </c>
     </row>
@@ -756,50 +1768,182 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>152768.8894643729</v>
+        <v>526250.778922406</v>
       </c>
       <c r="C8">
-        <v>719504.4479436238</v>
+        <v>242515.9536155624</v>
       </c>
       <c r="D8">
-        <v>12968.42696170176</v>
+        <v>103267.8976908295</v>
       </c>
       <c r="E8">
-        <v>307883.601868791</v>
+        <v>48605.25006921687</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>46623.21074146922</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>32503.61884486129</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>17346.43877683304</v>
       </c>
       <c r="I8">
-        <v>38624.12527791982</v>
+        <v>20585.88499525277</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.337071002145494</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.492125117646005</v>
       </c>
       <c r="L8">
-        <v>563073.1913318165</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1730015</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-4766305.285245009</v>
-      </c>
-      <c r="O8" t="inlineStr">
+        <v>29588.04123752871</v>
+      </c>
+      <c r="O8">
+        <v>29620.59782218164</v>
+      </c>
+      <c r="P8">
+        <v>8978.417450952913</v>
+      </c>
+      <c r="Q8">
+        <v>3357.254329766067</v>
+      </c>
+      <c r="R8">
+        <v>522.27682714072</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>75947.62470608612</v>
+      </c>
+      <c r="U8">
+        <v>829835.3249065584</v>
+      </c>
+      <c r="V8">
+        <v>66445.97912628569</v>
+      </c>
+      <c r="W8">
+        <v>12438.15100180029</v>
+      </c>
+      <c r="X8">
+        <v>312215.8238644672</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>172873.325594374</v>
+      </c>
+      <c r="AD8">
+        <v>526250.778922406</v>
+      </c>
+      <c r="AE8">
+        <v>527166.2834134147</v>
+      </c>
+      <c r="AF8">
+        <v>1733488</v>
+      </c>
+      <c r="AG8">
+        <v>15</v>
+      </c>
+      <c r="AH8">
+        <v>15</v>
+      </c>
+      <c r="AI8">
+        <v>42776.78663804232</v>
+      </c>
+      <c r="AJ8">
+        <v>58453.23930183334</v>
+      </c>
+      <c r="AK8">
+        <v>144220.3580795256</v>
+      </c>
+      <c r="AL8">
+        <v>3.075127485338222</v>
+      </c>
+      <c r="AM8">
+        <v>3881.037038516078</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>34373.11676826547</v>
+      </c>
+      <c r="AX8">
+        <v>38552.6650612614</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>37279.78277474261</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="P8">
+      <c r="BH8">
         <v>1</v>
       </c>
     </row>
@@ -808,50 +1952,182 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>255236.8724810393</v>
+        <v>773512.8991218025</v>
       </c>
       <c r="C9">
-        <v>973354.123126987</v>
+        <v>347247.8127667756</v>
       </c>
       <c r="D9">
-        <v>30177.47277026055</v>
+        <v>146588.740000756</v>
       </c>
       <c r="E9">
-        <v>416271.3840954166</v>
+        <v>68622.11774629852</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>65549.52184940594</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>45285.08764039506</v>
       </c>
       <c r="H9">
-        <v>6977.781392531348</v>
+        <v>25472.10840233126</v>
       </c>
       <c r="I9">
-        <v>51635.67297793939</v>
+        <v>26300.95035470197</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>61.27560141857212</v>
       </c>
       <c r="K9">
-        <v>103376.0496297924</v>
+        <v>90.1168878346756</v>
       </c>
       <c r="L9">
-        <v>776630.8551332452</v>
+        <v>4.502301460213883</v>
       </c>
       <c r="M9">
-        <v>2127316</v>
+        <v>10.08770457418211</v>
       </c>
       <c r="N9">
-        <v>-3799731.375243272</v>
-      </c>
-      <c r="O9" t="inlineStr">
+        <v>60512.9151536284</v>
+      </c>
+      <c r="O9">
+        <v>58304.88669353303</v>
+      </c>
+      <c r="P9">
+        <v>16124.64793298626</v>
+      </c>
+      <c r="Q9">
+        <v>6188.489200887186</v>
+      </c>
+      <c r="R9">
+        <v>928.3384664596695</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>149438.3782950119</v>
+      </c>
+      <c r="U9">
+        <v>1186061.536091124</v>
+      </c>
+      <c r="V9">
+        <v>98218.60784710654</v>
+      </c>
+      <c r="W9">
+        <v>33500.4708387803</v>
+      </c>
+      <c r="X9">
+        <v>445368.6962013879</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>111325.281067456</v>
+      </c>
+      <c r="AD9">
+        <v>773512.8991218025</v>
+      </c>
+      <c r="AE9">
+        <v>773553.7168406876</v>
+      </c>
+      <c r="AF9">
+        <v>2120734</v>
+      </c>
+      <c r="AG9">
+        <v>16</v>
+      </c>
+      <c r="AH9">
+        <v>16</v>
+      </c>
+      <c r="AI9">
+        <v>60899.77026079066</v>
+      </c>
+      <c r="AJ9">
+        <v>83686.39757448282</v>
+      </c>
+      <c r="AK9">
+        <v>205997.5174651749</v>
+      </c>
+      <c r="AL9">
+        <v>18.52573397036472</v>
+      </c>
+      <c r="AM9">
+        <v>7379.100847517301</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>52525.20466679175</v>
+      </c>
+      <c r="AX9">
+        <v>57701.79913396133</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>6571.753597986732</v>
+      </c>
+      <c r="BC9">
+        <v>51317.23527005733</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>109173.254097448</v>
+      </c>
+      <c r="BG9" t="inlineStr">
         <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="P9">
+      <c r="BH9">
         <v>1</v>
       </c>
     </row>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -415,79 +415,79 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>keep_length_18</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_19</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_20</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_22</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_23</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_24</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tot_bsb_catch</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_bsb</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_bsb</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_scup</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_scup</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>release_length_20</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>release_length_22</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_18</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_19</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_20</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_22</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_23</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_24</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>tot_bsb_catch</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_bsb</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_bsb</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>tot_keep_scup</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_scup</t>
-        </is>
-      </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>release_length_23</t>
@@ -570,22 +570,22 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>keep_length_30</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>release_length_27</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_26</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>release_length_25</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>keep_length_30</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>release_length_26</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -664,97 +664,97 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>99663.23485356061</v>
+        <v>107715.5001071087</v>
       </c>
       <c r="C2">
-        <v>16198.61083887716</v>
+        <v>18118.39649883694</v>
       </c>
       <c r="D2">
-        <v>16819.47948364973</v>
+        <v>17388.43784822946</v>
       </c>
       <c r="E2">
-        <v>17166.17092557854</v>
+        <v>19153.62075939088</v>
       </c>
       <c r="F2">
-        <v>3525.927189010131</v>
+        <v>3966.369167690817</v>
       </c>
       <c r="G2">
-        <v>32536.83565070587</v>
+        <v>35484.84774342366</v>
       </c>
       <c r="H2">
-        <v>92898.80970115877</v>
+        <v>101701.1899010487</v>
       </c>
       <c r="I2">
-        <v>42658.10653603906</v>
+        <v>47371.67144977793</v>
       </c>
       <c r="J2">
-        <v>508.7123012838803</v>
+        <v>640.7306530915497</v>
       </c>
       <c r="K2">
-        <v>159.7737638353417</v>
+        <v>210.0933635575666</v>
       </c>
       <c r="L2">
-        <v>338.0748661262873</v>
+        <v>25371.90394897011</v>
       </c>
       <c r="M2">
-        <v>48.13863174308456</v>
+        <v>7741.667360673058</v>
       </c>
       <c r="N2">
-        <v>22783.44210782078</v>
+        <v>16550.60881743353</v>
       </c>
       <c r="O2">
-        <v>7361.136547267716</v>
+        <v>2567.25010792327</v>
       </c>
       <c r="P2">
-        <v>15589.60786186951</v>
+        <v>2472.144440265285</v>
       </c>
       <c r="Q2">
-        <v>2427.065917538318</v>
+        <v>1259.193132425355</v>
       </c>
       <c r="R2">
-        <v>2068.619385323876</v>
+        <v>55962.76780769061</v>
       </c>
       <c r="S2">
-        <v>1135.083084650727</v>
+        <v>244633.5243866607</v>
       </c>
       <c r="T2">
-        <v>51364.95490447093</v>
+        <v>33139.3129220495</v>
       </c>
       <c r="U2">
-        <v>222919.6588321235</v>
+        <v>55436.67318832505</v>
       </c>
       <c r="V2">
-        <v>31880.14217558915</v>
+        <v>103102.14092981</v>
       </c>
       <c r="W2">
-        <v>50895.75325273935</v>
+        <v>33787.28848862812</v>
       </c>
       <c r="X2">
-        <v>94093.29088778369</v>
+        <v>64975.81743598699</v>
       </c>
       <c r="Y2">
-        <v>30334.36933463717</v>
+        <v>458.6123300309452</v>
       </c>
       <c r="Z2">
-        <v>56917.50843306963</v>
+        <v>63.19567927358171</v>
       </c>
       <c r="AA2">
-        <v>45.9329640888478</v>
+        <v>50.70444480816189</v>
       </c>
       <c r="AB2">
-        <v>15.08598002680028</v>
+        <v>25.65454750044663</v>
       </c>
       <c r="AC2">
-        <v>-24824.44789018601</v>
+        <v>101043.4789574254</v>
       </c>
       <c r="AD2">
-        <v>99663.23485356061</v>
+        <v>107715.5001071087</v>
       </c>
       <c r="AE2">
-        <v>99446.18606037875</v>
+        <v>108076.7678099376</v>
       </c>
       <c r="AF2">
-        <v>474084</v>
+        <v>484002</v>
       </c>
       <c r="AG2">
         <v>11</v>
@@ -848,97 +848,97 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>484973.7613181347</v>
+        <v>465397.9345054865</v>
       </c>
       <c r="C3">
-        <v>27594.58292030157</v>
+        <v>27798.97007162556</v>
       </c>
       <c r="D3">
-        <v>81666.71145961451</v>
+        <v>80121.04633295439</v>
       </c>
       <c r="E3">
-        <v>136850.9419215504</v>
+        <v>132857.5161138201</v>
       </c>
       <c r="F3">
-        <v>134011.1168637649</v>
+        <v>129014.9686018986</v>
       </c>
       <c r="G3">
-        <v>207875.8969922504</v>
+        <v>199719.4847116841</v>
       </c>
       <c r="H3">
-        <v>186758.8026563805</v>
+        <v>181877.1920846802</v>
       </c>
       <c r="I3">
-        <v>190038.6180558105</v>
+        <v>181440.0749236389</v>
       </c>
       <c r="J3">
-        <v>77483.66208587667</v>
+        <v>76537.28470429358</v>
       </c>
       <c r="K3">
-        <v>32273.93926594978</v>
+        <v>31934.2724903038</v>
       </c>
       <c r="L3">
-        <v>140.318966566053</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>69.21276696746854</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>56441.51472218574</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10831.38789383843</v>
       </c>
       <c r="P3">
-        <v>59098.15119985875</v>
+        <v>7479.546956479815</v>
       </c>
       <c r="Q3">
-        <v>11236.06800903611</v>
+        <v>29785.43496598874</v>
       </c>
       <c r="R3">
-        <v>7311.030036067754</v>
+        <v>214902.7674758083</v>
       </c>
       <c r="S3">
-        <v>29674.72216017185</v>
+        <v>1054613.362481762</v>
       </c>
       <c r="T3">
-        <v>221332.4164890419</v>
+        <v>144780.2580277259</v>
       </c>
       <c r="U3">
-        <v>1089077.05112929</v>
+        <v>205393.2587396544</v>
       </c>
       <c r="V3">
-        <v>152255.2240686332</v>
+        <v>460265.8029913526</v>
       </c>
       <c r="W3">
-        <v>210806.4728711189</v>
+        <v>370646.1334911824</v>
       </c>
       <c r="X3">
-        <v>474364.6667268813</v>
+        <v>53905.50641177824</v>
       </c>
       <c r="Y3">
-        <v>377764.08703539</v>
+        <v>185.0591953853834</v>
       </c>
       <c r="Z3">
-        <v>54195.84012063646</v>
+        <v>33.83340827996544</v>
       </c>
       <c r="AA3">
-        <v>76.51184927904576</v>
+        <v>32.86896037788561</v>
       </c>
       <c r="AB3">
-        <v>144.6889319891035</v>
+        <v>29.56206798399193</v>
       </c>
       <c r="AC3">
-        <v>497245.1232359805</v>
+        <v>162640.0584980272</v>
       </c>
       <c r="AD3">
-        <v>484973.7613181347</v>
+        <v>465397.9345054865</v>
       </c>
       <c r="AE3">
-        <v>486845.7167843499</v>
+        <v>467578.7560792913</v>
       </c>
       <c r="AF3">
-        <v>1952832</v>
+        <v>1983837</v>
       </c>
       <c r="AG3">
         <v>12</v>
@@ -947,40 +947,40 @@
         <v>12</v>
       </c>
       <c r="AI3">
-        <v>2299.679355030241</v>
+        <v>1922.140543633293</v>
       </c>
       <c r="AJ3">
-        <v>2159.430641983816</v>
+        <v>1878.762454543987</v>
       </c>
       <c r="AK3">
-        <v>9130.043753604374</v>
+        <v>8891.588991127917</v>
       </c>
       <c r="AL3">
-        <v>379.8825626837557</v>
+        <v>245.2416145261738</v>
       </c>
       <c r="AM3">
-        <v>85020.23461046499</v>
+        <v>83298.06067345015</v>
       </c>
       <c r="AN3">
-        <v>2147.037965801588</v>
+        <v>2062.457297152797</v>
       </c>
       <c r="AO3">
-        <v>4881.713484381296</v>
+        <v>4432.074823508581</v>
       </c>
       <c r="AP3">
-        <v>21962.40068346942</v>
+        <v>20518.98062712581</v>
       </c>
       <c r="AQ3">
-        <v>93.34865506722164</v>
+        <v>53.30951607822548</v>
       </c>
       <c r="AR3">
-        <v>2.453340840793319</v>
+        <v>89.25483457845506</v>
       </c>
       <c r="AS3">
-        <v>1.058339790185649</v>
+        <v>4.220920740124801</v>
       </c>
       <c r="AT3">
-        <v>27.20808377903383</v>
+        <v>0.01945568597423442</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1032,97 +1032,97 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>428631.1014846841</v>
+        <v>421595.3219608799</v>
       </c>
       <c r="C4">
-        <v>23654.361323487</v>
+        <v>21643.00742704276</v>
       </c>
       <c r="D4">
-        <v>60095.58204075761</v>
+        <v>54712.22968853685</v>
       </c>
       <c r="E4">
-        <v>173951.6773858863</v>
+        <v>158687.0218736446</v>
       </c>
       <c r="F4">
-        <v>144897.2395672818</v>
+        <v>132108.0421982223</v>
       </c>
       <c r="G4">
-        <v>162130.5360806042</v>
+        <v>146875.2409051389</v>
       </c>
       <c r="H4">
-        <v>179003.2808739177</v>
+        <v>162896.8744871259</v>
       </c>
       <c r="I4">
-        <v>186798.1438172771</v>
+        <v>170855.5927166871</v>
       </c>
       <c r="J4">
-        <v>115668.0356152196</v>
+        <v>104331.4484650977</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>71470.66632710393</v>
       </c>
       <c r="L4">
-        <v>242.2209036606978</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>211.0163061916311</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>27669.55306554634</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>23281.92611852396</v>
       </c>
       <c r="P4">
-        <v>28291.69767011433</v>
+        <v>11925.83925986925</v>
       </c>
       <c r="Q4">
-        <v>24180.19970348101</v>
+        <v>4392.96476060303</v>
       </c>
       <c r="R4">
-        <v>12000.75908765704</v>
+        <v>93974.79409103956</v>
       </c>
       <c r="S4">
-        <v>4683.430045594848</v>
+        <v>1058361.103652642</v>
       </c>
       <c r="T4">
-        <v>96873.15036537092</v>
+        <v>143711.819469825</v>
       </c>
       <c r="U4">
-        <v>1085906.495839277</v>
+        <v>158385.316596185</v>
       </c>
       <c r="V4">
-        <v>144431.1551603815</v>
+        <v>447428.3229697977</v>
       </c>
       <c r="W4">
-        <v>162273.2245597824</v>
+        <v>368369.2648315127</v>
       </c>
       <c r="X4">
-        <v>446773.6530092244</v>
+        <v>11732.81834909208</v>
       </c>
       <c r="Y4">
-        <v>370333.6552774457</v>
+        <v>222.7637541594401</v>
       </c>
       <c r="Z4">
-        <v>11136.14788353094</v>
+        <v>162.1967998498</v>
       </c>
       <c r="AA4">
-        <v>108.3445042510333</v>
+        <v>128.4743117871513</v>
       </c>
       <c r="AB4">
-        <v>42.8774434078952</v>
+        <v>15.54047850149815</v>
       </c>
       <c r="AC4">
-        <v>-80966.21190277164</v>
+        <v>331386.4210960272</v>
       </c>
       <c r="AD4">
-        <v>428631.1014846841</v>
+        <v>421595.3219608799</v>
       </c>
       <c r="AE4">
-        <v>428153.2377408551</v>
+        <v>422607.7842085884</v>
       </c>
       <c r="AF4">
-        <v>1904302</v>
+        <v>1890258</v>
       </c>
       <c r="AG4">
         <v>12</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="AI4">
-        <v>8729.158532234602</v>
+        <v>8316.788325325742</v>
       </c>
       <c r="AJ4">
-        <v>15090.52993014722</v>
+        <v>13029.5671363663</v>
       </c>
       <c r="AK4">
-        <v>15065.81140702656</v>
+        <v>12725.68767099231</v>
       </c>
       <c r="AL4">
-        <v>213.7898050217749</v>
+        <v>176.5356909639229</v>
       </c>
       <c r="AM4">
-        <v>26147.44275572812</v>
+        <v>25243.40300869173</v>
       </c>
       <c r="AN4">
-        <v>520.3169754347831</v>
+        <v>525.9606422674591</v>
       </c>
       <c r="AO4">
-        <v>896.8120795006583</v>
+        <v>750.2540833090919</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1158,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.083684208027112</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1.938543352466123</v>
       </c>
       <c r="AT4">
-        <v>1.583752797867502</v>
+        <v>1.046616789086323</v>
       </c>
       <c r="AU4">
-        <v>152.4920478601335</v>
+        <v>184.8931522286989</v>
       </c>
       <c r="AV4">
-        <v>0.2228658987407751</v>
+        <v>0.4402359544640544</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -1216,97 +1216,97 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3370922.805475109</v>
+        <v>3582126.887727681</v>
       </c>
       <c r="C5">
-        <v>449564.6832427088</v>
+        <v>489472.1380295238</v>
       </c>
       <c r="D5">
-        <v>630083.8642451726</v>
+        <v>693125.9630306765</v>
       </c>
       <c r="E5">
-        <v>1151147.910548545</v>
+        <v>1238500.642412679</v>
       </c>
       <c r="F5">
-        <v>1507835.07664621</v>
+        <v>1602109.135907721</v>
       </c>
       <c r="G5">
-        <v>1640072.741663835</v>
+        <v>1744828.87276545</v>
       </c>
       <c r="H5">
-        <v>1341711.366649112</v>
+        <v>1434974.974113886</v>
       </c>
       <c r="I5">
-        <v>1117412.582819165</v>
+        <v>1176180.651128192</v>
       </c>
       <c r="J5">
-        <v>415216.2779197142</v>
+        <v>439542.675078726</v>
       </c>
       <c r="K5">
-        <v>165233.5025580331</v>
+        <v>177549.9593854431</v>
       </c>
       <c r="L5">
-        <v>9125.910465460851</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>6554.872893705289</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>137055.9650650582</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>108912.5059513995</v>
       </c>
       <c r="P5">
-        <v>128427.5112786908</v>
+        <v>85810.60853988718</v>
       </c>
       <c r="Q5">
-        <v>98078.58319078949</v>
+        <v>42151.99700523372</v>
       </c>
       <c r="R5">
-        <v>79336.61742545305</v>
+        <v>581580.7355206807</v>
       </c>
       <c r="S5">
-        <v>40951.35189347765</v>
+        <v>9324798.521943597</v>
       </c>
       <c r="T5">
-        <v>546678.3792664576</v>
+        <v>1100408.333157319</v>
       </c>
       <c r="U5">
-        <v>8729600.063404454</v>
+        <v>555790.6086009353</v>
       </c>
       <c r="V5">
-        <v>1032706.771511709</v>
+        <v>4405899.038448386</v>
       </c>
       <c r="W5">
-        <v>540890.35968029</v>
+        <v>1139905.92342334</v>
       </c>
       <c r="X5">
-        <v>4174700.095497102</v>
+        <v>2086754.738324037</v>
       </c>
       <c r="Y5">
-        <v>1056530.952447495</v>
+        <v>9579.881654174704</v>
       </c>
       <c r="Z5">
-        <v>1975410.136452621</v>
+        <v>7878.205326688206</v>
       </c>
       <c r="AA5">
-        <v>6165.972763905478</v>
+        <v>6568.228567081673</v>
       </c>
       <c r="AB5">
-        <v>2940.503313086831</v>
+        <v>3508.621049307843</v>
       </c>
       <c r="AC5">
-        <v>-673846.2298803694</v>
+        <v>-189427.8428671785</v>
       </c>
       <c r="AD5">
-        <v>3370922.805475109</v>
+        <v>3582126.887727681</v>
       </c>
       <c r="AE5">
-        <v>3365070.356999897</v>
+        <v>3581984.3112427</v>
       </c>
       <c r="AF5">
-        <v>16700157</v>
+        <v>16639270</v>
       </c>
       <c r="AG5">
         <v>15</v>
@@ -1315,58 +1315,58 @@
         <v>15</v>
       </c>
       <c r="AI5">
-        <v>62433.4285621333</v>
+        <v>69537.23662470108</v>
       </c>
       <c r="AJ5">
-        <v>46796.49367097557</v>
+        <v>49400.45249872377</v>
       </c>
       <c r="AK5">
-        <v>107226.2370048851</v>
+        <v>106798.5521723758</v>
       </c>
       <c r="AL5">
-        <v>5365.884624827003</v>
+        <v>6763.802314059883</v>
       </c>
       <c r="AM5">
-        <v>80600.66945206652</v>
+        <v>83827.46370459926</v>
       </c>
       <c r="AN5">
-        <v>65308.75222729878</v>
+        <v>69884.24595591794</v>
       </c>
       <c r="AO5">
-        <v>33732.32272875717</v>
+        <v>35928.25111730598</v>
       </c>
       <c r="AP5">
-        <v>8548.227019655353</v>
+        <v>6867.716173983584</v>
       </c>
       <c r="AQ5">
-        <v>774.6590182736559</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>4022.457340527619</v>
+        <v>652.6001582898261</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>2289.091590265449</v>
       </c>
       <c r="AT5">
-        <v>1978.839930387324</v>
+        <v>5255.133537107407</v>
       </c>
       <c r="AU5">
-        <v>1852.874981677689</v>
+        <v>1420.831949216899</v>
       </c>
       <c r="AV5">
-        <v>111.8489192029696</v>
+        <v>145.21555861469</v>
       </c>
       <c r="AW5">
-        <v>8649.950290440344</v>
+        <v>11411.98767111565</v>
       </c>
       <c r="AX5">
-        <v>48667.74203531785</v>
+        <v>48098.27657886775</v>
       </c>
       <c r="AY5">
-        <v>507.2562788301576</v>
+        <v>626.2247899267458</v>
       </c>
       <c r="AZ5">
-        <v>9841.469068591207</v>
+        <v>9721.150058078387</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -1400,97 +1400,97 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4702172.270878015</v>
+        <v>4573364.165042957</v>
       </c>
       <c r="C6">
-        <v>897700.900651911</v>
+        <v>893880.9462645493</v>
       </c>
       <c r="D6">
-        <v>1586517.173706307</v>
+        <v>1563444.201197155</v>
       </c>
       <c r="E6">
-        <v>1425118.327644181</v>
+        <v>1400724.034760671</v>
       </c>
       <c r="F6">
-        <v>1952718.055454764</v>
+        <v>1929770.573801973</v>
       </c>
       <c r="G6">
-        <v>2103114.90268756</v>
+        <v>2089830.222160259</v>
       </c>
       <c r="H6">
-        <v>1969544.780018205</v>
+        <v>1947803.368357361</v>
       </c>
       <c r="I6">
-        <v>1749725.325353057</v>
+        <v>1719457.559701854</v>
       </c>
       <c r="J6">
-        <v>539645.0895644981</v>
+        <v>527756.3230467864</v>
       </c>
       <c r="K6">
-        <v>17807.93736478757</v>
+        <v>15794.95089459863</v>
       </c>
       <c r="L6">
-        <v>8437.911744242882</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2470.450106835877</v>
+        <v>443574.5292655986</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>260032.1411187901</v>
       </c>
       <c r="O6">
-        <v>428100.3787505953</v>
+        <v>61482.6924558188</v>
       </c>
       <c r="P6">
-        <v>254875.5078819041</v>
+        <v>37002.70069349944</v>
       </c>
       <c r="Q6">
-        <v>62935.42780216768</v>
+        <v>105922.2582734409</v>
       </c>
       <c r="R6">
-        <v>32638.25756834761</v>
+        <v>1078419.645038128</v>
       </c>
       <c r="S6">
-        <v>117289.8438030271</v>
+        <v>12634259.84483453</v>
       </c>
       <c r="T6">
-        <v>1085300.715660683</v>
+        <v>462542.2074353154</v>
       </c>
       <c r="U6">
-        <v>12824380.08144408</v>
+        <v>121711.8888683169</v>
       </c>
       <c r="V6">
-        <v>473399.8503193844</v>
+        <v>1852506.450161114</v>
       </c>
       <c r="W6">
-        <v>120927.7769702202</v>
+        <v>2298.732423904011</v>
       </c>
       <c r="X6">
-        <v>1790372.875828313</v>
+        <v>16227.98884261622</v>
       </c>
       <c r="Y6">
-        <v>2030.416425318842</v>
+        <v>8784.953496319735</v>
       </c>
       <c r="Z6">
-        <v>20401.402245922</v>
+        <v>1927.648361946715</v>
       </c>
       <c r="AA6">
-        <v>1056.248746790617</v>
+        <v>710.8077093887458</v>
       </c>
       <c r="AB6">
-        <v>4198.16810810046</v>
+        <v>3190.141131454427</v>
       </c>
       <c r="AC6">
-        <v>2568333.205766956</v>
+        <v>2132117.324611535</v>
       </c>
       <c r="AD6">
-        <v>4702172.270878015</v>
+        <v>4573364.165042957</v>
       </c>
       <c r="AE6">
-        <v>4715301.763718555</v>
+        <v>4582785.348769381</v>
       </c>
       <c r="AF6">
-        <v>19524823</v>
+        <v>19118093</v>
       </c>
       <c r="AG6">
         <v>15</v>
@@ -1499,25 +1499,25 @@
         <v>15</v>
       </c>
       <c r="AI6">
-        <v>14128.48578856734</v>
+        <v>11360.57435705259</v>
       </c>
       <c r="AJ6">
-        <v>74220.70144718562</v>
+        <v>68664.05354240348</v>
       </c>
       <c r="AK6">
-        <v>456426.1207444263</v>
+        <v>430767.7077990102</v>
       </c>
       <c r="AL6">
-        <v>5783.747393625543</v>
+        <v>4299.741362956596</v>
       </c>
       <c r="AM6">
-        <v>142157.2699504638</v>
+        <v>128244.8501672498</v>
       </c>
       <c r="AN6">
-        <v>10553.32000717757</v>
+        <v>7437.058931547591</v>
       </c>
       <c r="AO6">
-        <v>17557.72567023122</v>
+        <v>17010.04089845523</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>418.8695779550866</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>881.8768375259364</v>
       </c>
       <c r="AT6">
-        <v>513.3432549780348</v>
+        <v>273.0527129741886</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1541,28 +1541,28 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>7970.730831598482</v>
+        <v>7303.425638944506</v>
       </c>
       <c r="AX6">
-        <v>6224.202599089212</v>
+        <v>6879.503632133882</v>
       </c>
       <c r="AY6">
-        <v>144.3713942364766</v>
+        <v>395.9615614450346</v>
       </c>
       <c r="AZ6">
-        <v>7067.717798586501</v>
+        <v>5921.444692497296</v>
       </c>
       <c r="BA6">
-        <v>494.2372611776248</v>
+        <v>358.2165057659799</v>
       </c>
       <c r="BB6">
-        <v>34433.68331459697</v>
+        <v>32314.6622884987</v>
       </c>
       <c r="BC6">
-        <v>86261.34969575508</v>
+        <v>93427.53792421086</v>
       </c>
       <c r="BD6">
-        <v>12125.26642818248</v>
+        <v>11791.92854123042</v>
       </c>
       <c r="BE6">
         <v>0</v>
@@ -1584,79 +1584,79 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>381733.0632351546</v>
+        <v>406408.8627235841</v>
       </c>
       <c r="C7">
-        <v>25950.42864762727</v>
+        <v>27436.66102956576</v>
       </c>
       <c r="D7">
-        <v>71141.56276720401</v>
+        <v>75803.48157361179</v>
       </c>
       <c r="E7">
-        <v>114569.5411205737</v>
+        <v>123837.1614970442</v>
       </c>
       <c r="F7">
-        <v>142488.92972808</v>
+        <v>154796.6277491311</v>
       </c>
       <c r="G7">
-        <v>122868.7243030363</v>
+        <v>133424.8361230733</v>
       </c>
       <c r="H7">
-        <v>51351.20032467913</v>
+        <v>54059.25007786244</v>
       </c>
       <c r="I7">
-        <v>33465.79987964116</v>
+        <v>37087.24605197184</v>
       </c>
       <c r="J7">
-        <v>103.8976112247469</v>
+        <v>70.26258096143266</v>
       </c>
       <c r="K7">
-        <v>25.55608964345642</v>
+        <v>34.64271233161455</v>
       </c>
       <c r="L7">
-        <v>8.995852256949553</v>
+        <v>42161.56229743538</v>
       </c>
       <c r="M7">
-        <v>15.80708381002525</v>
+        <v>28239.07295515326</v>
       </c>
       <c r="N7">
-        <v>38528.42290762762</v>
+        <v>10507.01949932434</v>
       </c>
       <c r="O7">
-        <v>25581.30803581438</v>
+        <v>9165.582300858419</v>
       </c>
       <c r="P7">
-        <v>10168.62625862405</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>7713.924249702354</v>
+        <v>1.869169622013924</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>91115.21049930551</v>
       </c>
       <c r="S7">
-        <v>4.744334119129614</v>
+        <v>627905.3802867886</v>
       </c>
       <c r="T7">
-        <v>83041.32548919441</v>
+        <v>54172.02973106479</v>
       </c>
       <c r="U7">
-        <v>581340.4132013792</v>
+        <v>14406.85891303806</v>
       </c>
       <c r="V7">
-        <v>49495.30051742854</v>
+        <v>234807.4056825305</v>
       </c>
       <c r="W7">
-        <v>13426.14337579598</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>214618.3227565947</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>16.89345635651054</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>35.80866801065154</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1665,16 +1665,16 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>338786.3443942785</v>
+        <v>55688.24044027171</v>
       </c>
       <c r="AD7">
-        <v>381733.0632351546</v>
+        <v>406408.8627235841</v>
       </c>
       <c r="AE7">
-        <v>382973.5319692278</v>
+        <v>406650.8859162268</v>
       </c>
       <c r="AF7">
-        <v>1276292</v>
+        <v>1296992</v>
       </c>
       <c r="AG7">
         <v>16</v>
@@ -1683,22 +1683,22 @@
         <v>16</v>
       </c>
       <c r="AI7">
-        <v>6578.375948219849</v>
+        <v>7061.308671910257</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>12771.59384538276</v>
+        <v>14240.89461365362</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>671.3568186712732</v>
+        <v>762.1318616272231</v>
       </c>
       <c r="AN7">
-        <v>372.9428846356038</v>
+        <v>277.9724152848716</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>0.3054813041258182</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>2683.097423146894</v>
+        <v>3222.194374479879</v>
       </c>
       <c r="BC7">
-        <v>23342.11856874702</v>
+        <v>26489.66946409498</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -1768,73 +1768,73 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>526250.778922406</v>
+        <v>571098.5124525946</v>
       </c>
       <c r="C8">
-        <v>242515.9536155624</v>
+        <v>263831.2633533846</v>
       </c>
       <c r="D8">
-        <v>103267.8976908295</v>
+        <v>112073.0804732297</v>
       </c>
       <c r="E8">
-        <v>48605.25006921687</v>
+        <v>54145.79447739021</v>
       </c>
       <c r="F8">
-        <v>46623.21074146922</v>
+        <v>51115.2498371406</v>
       </c>
       <c r="G8">
-        <v>32503.61884486129</v>
+        <v>35677.48209294005</v>
       </c>
       <c r="H8">
-        <v>17346.43877683304</v>
+        <v>19328.3287858052</v>
       </c>
       <c r="I8">
-        <v>20585.88499525277</v>
+        <v>22670.94912312864</v>
       </c>
       <c r="J8">
-        <v>5.337071002145494</v>
+        <v>13.94855701183646</v>
       </c>
       <c r="K8">
-        <v>2.492125117646005</v>
+        <v>16.58261157116237</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>31695.42212626731</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>30721.57341395913</v>
       </c>
       <c r="N8">
-        <v>29588.04123752871</v>
+        <v>9134.360838575713</v>
       </c>
       <c r="O8">
-        <v>29620.59782218164</v>
+        <v>3536.683060305935</v>
       </c>
       <c r="P8">
-        <v>8978.417450952913</v>
+        <v>469.3878888609872</v>
       </c>
       <c r="Q8">
-        <v>3357.254329766067</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>522.27682714072</v>
+        <v>80434.24846659205</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>910647.4271144474</v>
       </c>
       <c r="T8">
-        <v>75947.62470608612</v>
+        <v>71758.84128446659</v>
       </c>
       <c r="U8">
-        <v>829835.3249065584</v>
+        <v>11982.29014373917</v>
       </c>
       <c r="V8">
-        <v>66445.97912628569</v>
+        <v>316397.1619210594</v>
       </c>
       <c r="W8">
-        <v>12438.15100180029</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>312215.8238644672</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>172873.325594374</v>
+        <v>-562091.205919833</v>
       </c>
       <c r="AD8">
-        <v>526250.778922406</v>
+        <v>571098.5124525946</v>
       </c>
       <c r="AE8">
-        <v>527166.2834134147</v>
+        <v>568968.6072489346</v>
       </c>
       <c r="AF8">
-        <v>1733488</v>
+        <v>1752120</v>
       </c>
       <c r="AG8">
         <v>15</v>
@@ -1867,19 +1867,19 @@
         <v>15</v>
       </c>
       <c r="AI8">
-        <v>42776.78663804232</v>
+        <v>45569.08992271229</v>
       </c>
       <c r="AJ8">
-        <v>58453.23930183334</v>
+        <v>63912.04393159101</v>
       </c>
       <c r="AK8">
-        <v>144220.3580795256</v>
+        <v>158999.9194375056</v>
       </c>
       <c r="AL8">
-        <v>3.075127485338222</v>
+        <v>6.788921274543185</v>
       </c>
       <c r="AM8">
-        <v>3881.037038516078</v>
+        <v>4876.821138622968</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>34373.11676826547</v>
+        <v>40528.21660823248</v>
       </c>
       <c r="AX8">
-        <v>38552.6650612614</v>
+        <v>42758.68898152939</v>
       </c>
       <c r="AY8">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>37279.78277474261</v>
+        <v>38219.37443199737</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -1952,79 +1952,79 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>773512.8991218025</v>
+        <v>817107.224883589</v>
       </c>
       <c r="C9">
-        <v>347247.8127667756</v>
+        <v>369305.5189320675</v>
       </c>
       <c r="D9">
-        <v>146588.740000756</v>
+        <v>154010.419626104</v>
       </c>
       <c r="E9">
-        <v>68622.11774629852</v>
+        <v>74883.21740018569</v>
       </c>
       <c r="F9">
-        <v>65549.52184940594</v>
+        <v>69923.06379161424</v>
       </c>
       <c r="G9">
-        <v>45285.08764039506</v>
+        <v>49190.50047848848</v>
       </c>
       <c r="H9">
-        <v>25472.10840233126</v>
+        <v>27269.15013096284</v>
       </c>
       <c r="I9">
-        <v>26300.95035470197</v>
+        <v>29503.91069941005</v>
       </c>
       <c r="J9">
-        <v>61.27560141857212</v>
+        <v>37.05629576115458</v>
       </c>
       <c r="K9">
-        <v>90.1168878346756</v>
+        <v>56.73775782585217</v>
       </c>
       <c r="L9">
-        <v>4.502301460213883</v>
+        <v>62449.83889660521</v>
       </c>
       <c r="M9">
-        <v>10.08770457418211</v>
+        <v>62825.49651942099</v>
       </c>
       <c r="N9">
-        <v>60512.9151536284</v>
+        <v>17389.83858460812</v>
       </c>
       <c r="O9">
-        <v>58304.88669353303</v>
+        <v>7593.669191091381</v>
       </c>
       <c r="P9">
-        <v>16124.64793298626</v>
+        <v>1205.454511642415</v>
       </c>
       <c r="Q9">
-        <v>6188.489200887186</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>928.3384664596695</v>
+        <v>160063.1577314329</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1267389.113324884</v>
       </c>
       <c r="T9">
-        <v>149438.3782950119</v>
+        <v>109817.512383719</v>
       </c>
       <c r="U9">
-        <v>1186061.536091124</v>
+        <v>31858.79967294207</v>
       </c>
       <c r="V9">
-        <v>98218.60784710654</v>
+        <v>447096.9169897003</v>
       </c>
       <c r="W9">
-        <v>33500.4708387803</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>445368.6962013879</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>10.83113397719535</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>23.50755893236539</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2033,16 +2033,16 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>111325.281067456</v>
+        <v>-104683.0069246754</v>
       </c>
       <c r="AD9">
-        <v>773512.8991218025</v>
+        <v>817107.224883589</v>
       </c>
       <c r="AE9">
-        <v>773553.7168406876</v>
+        <v>817054.8199837607</v>
       </c>
       <c r="AF9">
-        <v>2120734</v>
+        <v>2151777</v>
       </c>
       <c r="AG9">
         <v>16</v>
@@ -2051,19 +2051,19 @@
         <v>16</v>
       </c>
       <c r="AI9">
-        <v>60899.77026079066</v>
+        <v>64406.87515309969</v>
       </c>
       <c r="AJ9">
-        <v>83686.39757448282</v>
+        <v>90830.88184478539</v>
       </c>
       <c r="AK9">
-        <v>205997.5174651749</v>
+        <v>220661.3723444612</v>
       </c>
       <c r="AL9">
-        <v>18.52573397036472</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>7379.100847517301</v>
+        <v>8598.860028064801</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="AW9">
-        <v>52525.20466679175</v>
+        <v>56233.76560783736</v>
       </c>
       <c r="AX9">
-        <v>57701.79913396133</v>
+        <v>61042.30456937094</v>
       </c>
       <c r="AY9">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>6571.753597986732</v>
+        <v>6547.687719706637</v>
       </c>
       <c r="BC9">
-        <v>51317.23527005733</v>
+        <v>51699.07982853649</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="BF9">
-        <v>109173.254097448</v>
+        <v>109141.2356525215</v>
       </c>
       <c r="BG9" t="inlineStr">
         <is>

--- a/state_output.xlsx
+++ b/state_output.xlsx
@@ -351,13 +351,1902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BL9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>state1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>parameter_draw</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_10</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_11</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_12</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_13</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_14</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_15</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_16</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_17</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_18</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_19</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_20</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_21</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_22</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_23</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_24</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tot_bsb_catch</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_bsb</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_bsb</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_scup</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_scup</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_27</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_15</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_16</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_17</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_18</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_19</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_20</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_21</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_22</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_23</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_24</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_27</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>change_CS</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>observed_trips</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>n_choice_occasions</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>alt_regs</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_8</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_9</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_25</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_26</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_28</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_30</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_29</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_26</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_28</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_25</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_30</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_6</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_7</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_29</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>release_length_31</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_31</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_wf</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_wf</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>keep_length_14</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>tot_keep_rd</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>tot_rel_rd</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>122044.9803506774</v>
+      </c>
+      <c r="C2">
+        <v>17994.90347141587</v>
+      </c>
+      <c r="D2">
+        <v>17478.20207674404</v>
+      </c>
+      <c r="E2">
+        <v>35646.91014689422</v>
+      </c>
+      <c r="F2">
+        <v>65604.06977189114</v>
+      </c>
+      <c r="G2">
+        <v>35380.09441781682</v>
+      </c>
+      <c r="H2">
+        <v>24145.49600949799</v>
+      </c>
+      <c r="I2">
+        <v>64309.47273713296</v>
+      </c>
+      <c r="J2">
+        <v>32112.04099208461</v>
+      </c>
+      <c r="K2">
+        <v>14716.0166732057</v>
+      </c>
+      <c r="L2">
+        <v>6439.708814527286</v>
+      </c>
+      <c r="M2">
+        <v>17403.92361342133</v>
+      </c>
+      <c r="N2">
+        <v>1081.006876984944</v>
+      </c>
+      <c r="O2">
+        <v>2249.224519080124</v>
+      </c>
+      <c r="P2">
+        <v>4039.4676870616</v>
+      </c>
+      <c r="Q2">
+        <v>596.57880818461</v>
+      </c>
+      <c r="R2">
+        <v>167179.8027789141</v>
+      </c>
+      <c r="S2">
+        <v>173029.4788737298</v>
+      </c>
+      <c r="T2">
+        <v>38126.38487088765</v>
+      </c>
+      <c r="U2">
+        <v>62007.74203438739</v>
+      </c>
+      <c r="V2">
+        <v>115255.78877937</v>
+      </c>
+      <c r="W2">
+        <v>38002.68735848838</v>
+      </c>
+      <c r="X2">
+        <v>74075.18766488461</v>
+      </c>
+      <c r="Y2">
+        <v>86.86604773293928</v>
+      </c>
+      <c r="Z2">
+        <v>135.2409206610374</v>
+      </c>
+      <c r="AA2">
+        <v>363.0353722219276</v>
+      </c>
+      <c r="AB2">
+        <v>172.9458569064064</v>
+      </c>
+      <c r="AC2">
+        <v>83.74350014848653</v>
+      </c>
+      <c r="AD2">
+        <v>37.48185822895295</v>
+      </c>
+      <c r="AE2">
+        <v>88.19663933104309</v>
+      </c>
+      <c r="AF2">
+        <v>6.342512984870549</v>
+      </c>
+      <c r="AG2">
+        <v>12.14374559946781</v>
+      </c>
+      <c r="AH2">
+        <v>22.51657286745122</v>
+      </c>
+      <c r="AI2">
+        <v>3.056941702766823</v>
+      </c>
+      <c r="AJ2">
+        <v>0.5950683152975438</v>
+      </c>
+      <c r="AK2">
+        <v>-2886748.055441898</v>
+      </c>
+      <c r="AL2">
+        <v>122044.9803506774</v>
+      </c>
+      <c r="AM2">
+        <v>484719</v>
+      </c>
+      <c r="AN2">
+        <v>11</v>
+      </c>
+      <c r="AO2">
+        <v>11</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>496546.7058026792</v>
+      </c>
+      <c r="C3">
+        <v>11356.97929562888</v>
+      </c>
+      <c r="D3">
+        <v>37475.05477080145</v>
+      </c>
+      <c r="E3">
+        <v>113194.2229484484</v>
+      </c>
+      <c r="F3">
+        <v>152635.5146189806</v>
+      </c>
+      <c r="G3">
+        <v>161378.8444994929</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>131698.9241267098</v>
+      </c>
+      <c r="K3">
+        <v>56132.93051924741</v>
+      </c>
+      <c r="L3">
+        <v>27519.84901859489</v>
+      </c>
+      <c r="M3">
+        <v>50946.884546298</v>
+      </c>
+      <c r="N3">
+        <v>43004.66145193547</v>
+      </c>
+      <c r="O3">
+        <v>13706.47983751093</v>
+      </c>
+      <c r="P3">
+        <v>9996.570849962147</v>
+      </c>
+      <c r="Q3">
+        <v>12780.45088265194</v>
+      </c>
+      <c r="R3">
+        <v>357219.2168490307</v>
+      </c>
+      <c r="S3">
+        <v>1017730.681214213</v>
+      </c>
+      <c r="T3">
+        <v>161706.7110587953</v>
+      </c>
+      <c r="U3">
+        <v>220943.2407574705</v>
+      </c>
+      <c r="V3">
+        <v>501877.0135857847</v>
+      </c>
+      <c r="W3">
+        <v>381297.550964837</v>
+      </c>
+      <c r="X3">
+        <v>50682.49632724812</v>
+      </c>
+      <c r="Y3">
+        <v>7720.662558469983</v>
+      </c>
+      <c r="Z3">
+        <v>260252.6143097106</v>
+      </c>
+      <c r="AA3">
+        <v>264687.200202122</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>-3169449.850192536</v>
+      </c>
+      <c r="AL3">
+        <v>496546.7058026792</v>
+      </c>
+      <c r="AM3">
+        <v>1922462</v>
+      </c>
+      <c r="AN3">
+        <v>12</v>
+      </c>
+      <c r="AO3">
+        <v>12</v>
+      </c>
+      <c r="AP3">
+        <v>4273.357645370375</v>
+      </c>
+      <c r="AQ3">
+        <v>12476.89292365805</v>
+      </c>
+      <c r="AR3">
+        <v>1239.054414934166</v>
+      </c>
+      <c r="AS3">
+        <v>2030.505622564926</v>
+      </c>
+      <c r="AT3">
+        <v>437.9990342423792</v>
+      </c>
+      <c r="AU3">
+        <v>2.78779285076045</v>
+      </c>
+      <c r="AV3">
+        <v>1.456193057922769</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>442205.4953614029</v>
+      </c>
+      <c r="C4">
+        <v>28382.35600726731</v>
+      </c>
+      <c r="D4">
+        <v>20803.7530093513</v>
+      </c>
+      <c r="E4">
+        <v>67572.13608537479</v>
+      </c>
+      <c r="F4">
+        <v>173308.9744853732</v>
+      </c>
+      <c r="G4">
+        <v>176435.7672126482</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>114616.3102344791</v>
+      </c>
+      <c r="K4">
+        <v>93220.38610094115</v>
+      </c>
+      <c r="L4">
+        <v>56829.41756259742</v>
+      </c>
+      <c r="M4">
+        <v>21240.82627571633</v>
+      </c>
+      <c r="N4">
+        <v>16995.49281733906</v>
+      </c>
+      <c r="O4">
+        <v>9857.596354090169</v>
+      </c>
+      <c r="P4">
+        <v>5609.351396605874</v>
+      </c>
+      <c r="Q4">
+        <v>3418.053596459226</v>
+      </c>
+      <c r="R4">
+        <v>323531.2686806148</v>
+      </c>
+      <c r="S4">
+        <v>910489.9159072386</v>
+      </c>
+      <c r="T4">
+        <v>133818.6267783882</v>
+      </c>
+      <c r="U4">
+        <v>172133.1863334848</v>
+      </c>
+      <c r="V4">
+        <v>466333.1255989397</v>
+      </c>
+      <c r="W4">
+        <v>380511.0150934334</v>
+      </c>
+      <c r="X4">
+        <v>15315.64323833939</v>
+      </c>
+      <c r="Y4">
+        <v>348.7472433344715</v>
+      </c>
+      <c r="Z4">
+        <v>172853.6799284572</v>
+      </c>
+      <c r="AA4">
+        <v>248166.343523157</v>
+      </c>
+      <c r="AB4">
+        <v>401.6277155279314</v>
+      </c>
+      <c r="AC4">
+        <v>336.8723993623538</v>
+      </c>
+      <c r="AD4">
+        <v>200.9374813731189</v>
+      </c>
+      <c r="AE4">
+        <v>73.81516718747207</v>
+      </c>
+      <c r="AF4">
+        <v>58.52142419540273</v>
+      </c>
+      <c r="AG4">
+        <v>33.81978118889175</v>
+      </c>
+      <c r="AH4">
+        <v>20.93063845667535</v>
+      </c>
+      <c r="AI4">
+        <v>10.84568537414912</v>
+      </c>
+      <c r="AJ4">
+        <v>1.117375086099382</v>
+      </c>
+      <c r="AK4">
+        <v>-6821996.615895664</v>
+      </c>
+      <c r="AL4">
+        <v>442205.4953614029</v>
+      </c>
+      <c r="AM4">
+        <v>1868972</v>
+      </c>
+      <c r="AN4">
+        <v>12</v>
+      </c>
+      <c r="AO4">
+        <v>12</v>
+      </c>
+      <c r="AP4">
+        <v>9564.823789712154</v>
+      </c>
+      <c r="AQ4">
+        <v>12258.54037944343</v>
+      </c>
+      <c r="AR4">
+        <v>682.4471830471138</v>
+      </c>
+      <c r="AS4">
+        <v>116.0377729046426</v>
+      </c>
+      <c r="AT4">
+        <v>581.658710781998</v>
+      </c>
+      <c r="AU4">
+        <v>14.9434323183097</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0.9019264883270867</v>
+      </c>
+      <c r="AX4">
+        <v>1.281297536134347</v>
+      </c>
+      <c r="AY4">
+        <v>2.696793108331662</v>
+      </c>
+      <c r="AZ4">
+        <v>0.173801569136752</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3908046.669959711</v>
+      </c>
+      <c r="C5">
+        <v>217234.2793040482</v>
+      </c>
+      <c r="D5">
+        <v>738426.5754317452</v>
+      </c>
+      <c r="E5">
+        <v>1192826.406073715</v>
+      </c>
+      <c r="F5">
+        <v>1516733.435662525</v>
+      </c>
+      <c r="G5">
+        <v>1890860.776734074</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>539934.708103565</v>
+      </c>
+      <c r="K5">
+        <v>282186.4456760883</v>
+      </c>
+      <c r="L5">
+        <v>182582.4297116505</v>
+      </c>
+      <c r="M5">
+        <v>82965.41906174133</v>
+      </c>
+      <c r="N5">
+        <v>92495.85541509021</v>
+      </c>
+      <c r="O5">
+        <v>64295.35089079282</v>
+      </c>
+      <c r="P5">
+        <v>46962.11425237427</v>
+      </c>
+      <c r="Q5">
+        <v>28049.3854768322</v>
+      </c>
+      <c r="R5">
+        <v>1389677.901981797</v>
+      </c>
+      <c r="S5">
+        <v>9431065.936788859</v>
+      </c>
+      <c r="T5">
+        <v>1258657.601905955</v>
+      </c>
+      <c r="U5">
+        <v>651034.8089738975</v>
+      </c>
+      <c r="V5">
+        <v>5047283.160490313</v>
+      </c>
+      <c r="W5">
+        <v>1222862.778298904</v>
+      </c>
+      <c r="X5">
+        <v>2277724.899738664</v>
+      </c>
+      <c r="Y5">
+        <v>9820.324934330474</v>
+      </c>
+      <c r="Z5">
+        <v>2001737.834207781</v>
+      </c>
+      <c r="AA5">
+        <v>1566576.573622566</v>
+      </c>
+      <c r="AB5">
+        <v>60060.4098959861</v>
+      </c>
+      <c r="AC5">
+        <v>30040.04160230724</v>
+      </c>
+      <c r="AD5">
+        <v>19449.87357860956</v>
+      </c>
+      <c r="AE5">
+        <v>9456.760021006536</v>
+      </c>
+      <c r="AF5">
+        <v>10099.4782490475</v>
+      </c>
+      <c r="AG5">
+        <v>6925.09679156047</v>
+      </c>
+      <c r="AH5">
+        <v>5112.851183360171</v>
+      </c>
+      <c r="AI5">
+        <v>3521.091770114079</v>
+      </c>
+      <c r="AJ5">
+        <v>967.8440856562182</v>
+      </c>
+      <c r="AK5">
+        <v>-26573586.95245674</v>
+      </c>
+      <c r="AL5">
+        <v>3908046.669959711</v>
+      </c>
+      <c r="AM5">
+        <v>16826533</v>
+      </c>
+      <c r="AN5">
+        <v>15</v>
+      </c>
+      <c r="AO5">
+        <v>15</v>
+      </c>
+      <c r="AP5">
+        <v>52120.32053527702</v>
+      </c>
+      <c r="AQ5">
+        <v>58360.12654440312</v>
+      </c>
+      <c r="AR5">
+        <v>28595.96530094146</v>
+      </c>
+      <c r="AS5">
+        <v>20118.476299494</v>
+      </c>
+      <c r="AT5">
+        <v>5847.735064051604</v>
+      </c>
+      <c r="AU5">
+        <v>3321.864907733338</v>
+      </c>
+      <c r="AV5">
+        <v>1763.827688298421</v>
+      </c>
+      <c r="AW5">
+        <v>2255.537834623759</v>
+      </c>
+      <c r="AX5">
+        <v>429.8057739759619</v>
+      </c>
+      <c r="AY5">
+        <v>2846.146137694084</v>
+      </c>
+      <c r="AZ5">
+        <v>128.1882822462339</v>
+      </c>
+      <c r="BA5">
+        <v>8021.022018211118</v>
+      </c>
+      <c r="BB5">
+        <v>36544.18416669395</v>
+      </c>
+      <c r="BC5">
+        <v>185.4200359344725</v>
+      </c>
+      <c r="BD5">
+        <v>145.8572456977275</v>
+      </c>
+      <c r="BE5">
+        <v>737.9991988133919</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4998946.968011347</v>
+      </c>
+      <c r="C6">
+        <v>586994.3856123006</v>
+      </c>
+      <c r="D6">
+        <v>1202854.787882588</v>
+      </c>
+      <c r="E6">
+        <v>2275464.916276853</v>
+      </c>
+      <c r="F6">
+        <v>2024000.526957816</v>
+      </c>
+      <c r="G6">
+        <v>2807668.860509159</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1152348.494071003</v>
+      </c>
+      <c r="J6">
+        <v>991246.0640600157</v>
+      </c>
+      <c r="K6">
+        <v>388161.634513589</v>
+      </c>
+      <c r="L6">
+        <v>245223.5813956659</v>
+      </c>
+      <c r="M6">
+        <v>148732.2954848182</v>
+      </c>
+      <c r="N6">
+        <v>89821.30896213395</v>
+      </c>
+      <c r="O6">
+        <v>59122.63650219777</v>
+      </c>
+      <c r="P6">
+        <v>20867.33818854898</v>
+      </c>
+      <c r="Q6">
+        <v>37342.86358193378</v>
+      </c>
+      <c r="R6">
+        <v>3175853.686513574</v>
+      </c>
+      <c r="S6">
+        <v>12047022.06615359</v>
+      </c>
+      <c r="T6">
+        <v>524272.604966946</v>
+      </c>
+      <c r="U6">
+        <v>131498.6861839339</v>
+      </c>
+      <c r="V6">
+        <v>1918568.07356573</v>
+      </c>
+      <c r="W6">
+        <v>2631.562344151542</v>
+      </c>
+      <c r="X6">
+        <v>17751.79694876481</v>
+      </c>
+      <c r="Y6">
+        <v>545.9898833834903</v>
+      </c>
+      <c r="Z6">
+        <v>2935261.810123051</v>
+      </c>
+      <c r="AA6">
+        <v>19654.23166895699</v>
+      </c>
+      <c r="AB6">
+        <v>17377.96622131749</v>
+      </c>
+      <c r="AC6">
+        <v>6268.127126490315</v>
+      </c>
+      <c r="AD6">
+        <v>4338.787668833701</v>
+      </c>
+      <c r="AE6">
+        <v>2553.147413411167</v>
+      </c>
+      <c r="AF6">
+        <v>1622.604796112208</v>
+      </c>
+      <c r="AG6">
+        <v>1093.106768220462</v>
+      </c>
+      <c r="AH6">
+        <v>370.337201212417</v>
+      </c>
+      <c r="AI6">
+        <v>603.4785457605534</v>
+      </c>
+      <c r="AJ6">
+        <v>5.5539124000031</v>
+      </c>
+      <c r="AK6">
+        <v>-117728091.5547978</v>
+      </c>
+      <c r="AL6">
+        <v>4998946.968011347</v>
+      </c>
+      <c r="AM6">
+        <v>18774126</v>
+      </c>
+      <c r="AN6">
+        <v>15</v>
+      </c>
+      <c r="AO6">
+        <v>15</v>
+      </c>
+      <c r="AP6">
+        <v>31253.54750199049</v>
+      </c>
+      <c r="AQ6">
+        <v>91197.93522862067</v>
+      </c>
+      <c r="AR6">
+        <v>30280.10830956715</v>
+      </c>
+      <c r="AS6">
+        <v>6504.795462632121</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>2307.549535049887</v>
+      </c>
+      <c r="AV6">
+        <v>1106.449816705878</v>
+      </c>
+      <c r="AW6">
+        <v>103.0843710005918</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>487.1103193799896</v>
+      </c>
+      <c r="AZ6">
+        <v>32.41764436378087</v>
+      </c>
+      <c r="BA6">
+        <v>21850.22936444423</v>
+      </c>
+      <c r="BB6">
+        <v>15905.3942723703</v>
+      </c>
+      <c r="BC6">
+        <v>24.58069940665124</v>
+      </c>
+      <c r="BD6">
+        <v>35.13806752987629</v>
+      </c>
+      <c r="BE6">
+        <v>2242.576746330049</v>
+      </c>
+      <c r="BF6">
+        <v>34557.41498329824</v>
+      </c>
+      <c r="BG6">
+        <v>97360.46832699144</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>443953.7389388276</v>
+      </c>
+      <c r="C7">
+        <v>31035.52114411473</v>
+      </c>
+      <c r="D7">
+        <v>56003.05417042144</v>
+      </c>
+      <c r="E7">
+        <v>118630.2443906741</v>
+      </c>
+      <c r="F7">
+        <v>201109.6324315087</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>113483.1691855731</v>
+      </c>
+      <c r="I7">
+        <v>51292.45742334378</v>
+      </c>
+      <c r="J7">
+        <v>25977.34118030824</v>
+      </c>
+      <c r="K7">
+        <v>17640.53020983002</v>
+      </c>
+      <c r="L7">
+        <v>10502.39493874549</v>
+      </c>
+      <c r="M7">
+        <v>3743.60674596327</v>
+      </c>
+      <c r="N7">
+        <v>1432.671939601184</v>
+      </c>
+      <c r="O7">
+        <v>3145.617291472792</v>
+      </c>
+      <c r="P7">
+        <v>15.92018908822395</v>
+      </c>
+      <c r="Q7">
+        <v>297.1355188854764</v>
+      </c>
+      <c r="R7">
+        <v>340094.8677129723</v>
+      </c>
+      <c r="S7">
+        <v>443051.4781207508</v>
+      </c>
+      <c r="T7">
+        <v>55457.01790452204</v>
+      </c>
+      <c r="U7">
+        <v>15653.51363962721</v>
+      </c>
+      <c r="V7">
+        <v>244268.3381859132</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>-13550041.70449417</v>
+      </c>
+      <c r="AL7">
+        <v>443953.7389388276</v>
+      </c>
+      <c r="AM7">
+        <v>1279044</v>
+      </c>
+      <c r="AN7">
+        <v>16</v>
+      </c>
+      <c r="AO7">
+        <v>16</v>
+      </c>
+      <c r="AP7">
+        <v>10193.38521728862</v>
+      </c>
+      <c r="AQ7">
+        <v>15636.19642788154</v>
+      </c>
+      <c r="AR7">
+        <v>169.8011566151992</v>
+      </c>
+      <c r="AS7">
+        <v>914.0692759608488</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>10443.44433886161</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>3358.59716099197</v>
+      </c>
+      <c r="BG7">
+        <v>29151.04581420153</v>
+      </c>
+      <c r="BH7">
+        <v>111480.1526575847</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>587377.4560862643</v>
+      </c>
+      <c r="C8">
+        <v>142598.347842007</v>
+      </c>
+      <c r="D8">
+        <v>241168.0940424507</v>
+      </c>
+      <c r="E8">
+        <v>152283.4504180108</v>
+      </c>
+      <c r="F8">
+        <v>81824.80540862141</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>45677.00243851346</v>
+      </c>
+      <c r="I8">
+        <v>23288.49564404985</v>
+      </c>
+      <c r="J8">
+        <v>26134.5185581415</v>
+      </c>
+      <c r="K8">
+        <v>13144.60475367317</v>
+      </c>
+      <c r="L8">
+        <v>13270.37211246616</v>
+      </c>
+      <c r="M8">
+        <v>6184.013039764272</v>
+      </c>
+      <c r="N8">
+        <v>1558.000237479608</v>
+      </c>
+      <c r="O8">
+        <v>1099.109331434461</v>
+      </c>
+      <c r="P8">
+        <v>138.0057421428163</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>177385.720243257</v>
+      </c>
+      <c r="S8">
+        <v>842219.9384759688</v>
+      </c>
+      <c r="T8">
+        <v>83434.83835242965</v>
+      </c>
+      <c r="U8">
+        <v>13869.94100825704</v>
+      </c>
+      <c r="V8">
+        <v>346572.9901323713</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>-6440118.072406828</v>
+      </c>
+      <c r="AL8">
+        <v>587377.4560862643</v>
+      </c>
+      <c r="AM8">
+        <v>1747958</v>
+      </c>
+      <c r="AN8">
+        <v>15</v>
+      </c>
+      <c r="AO8">
+        <v>15</v>
+      </c>
+      <c r="AP8">
+        <v>62775.32651712249</v>
+      </c>
+      <c r="AQ8">
+        <v>76949.46307993089</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>408.7099677334599</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>30456.0034757639</v>
+      </c>
+      <c r="BB8">
+        <v>54164.44769206162</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>43522.32102957209</v>
+      </c>
+      <c r="BH8">
+        <v>46482.88841785827</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>784899.1072742515</v>
+      </c>
+      <c r="C9">
+        <v>181201.9415225508</v>
+      </c>
+      <c r="D9">
+        <v>315105.3618689749</v>
+      </c>
+      <c r="E9">
+        <v>197744.7681677163</v>
+      </c>
+      <c r="F9">
+        <v>105616.441383146</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>62091.10860120983</v>
+      </c>
+      <c r="I9">
+        <v>32264.15306742101</v>
+      </c>
+      <c r="J9">
+        <v>46205.09160575493</v>
+      </c>
+      <c r="K9">
+        <v>24895.54561546434</v>
+      </c>
+      <c r="L9">
+        <v>25970.26257858991</v>
+      </c>
+      <c r="M9">
+        <v>13812.29223628357</v>
+      </c>
+      <c r="N9">
+        <v>2619.149251193969</v>
+      </c>
+      <c r="O9">
+        <v>1808.07474743741</v>
+      </c>
+      <c r="P9">
+        <v>323.619756134742</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>270983.5556972526</v>
+      </c>
+      <c r="S9">
+        <v>1089228.408886148</v>
+      </c>
+      <c r="T9">
+        <v>111619.7943718104</v>
+      </c>
+      <c r="U9">
+        <v>28949.15901856756</v>
+      </c>
+      <c r="V9">
+        <v>412131.1699136466</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>-4949083.942637463</v>
+      </c>
+      <c r="AL9">
+        <v>784899.1072742515</v>
+      </c>
+      <c r="AM9">
+        <v>2118498</v>
+      </c>
+      <c r="AN9">
+        <v>16</v>
+      </c>
+      <c r="AO9">
+        <v>16</v>
+      </c>
+      <c r="AP9">
+        <v>77606.5802270077</v>
+      </c>
+      <c r="AQ9">
+        <v>100300.9699549928</v>
+      </c>
+      <c r="AR9">
+        <v>7.985997092178212</v>
+      </c>
+      <c r="AS9">
+        <v>809.2222053539516</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>41675.33154787191</v>
+      </c>
+      <c r="BB9">
+        <v>69977.01421388723</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>7077.432390550389</v>
+      </c>
+      <c r="BG9">
+        <v>50860.09265470125</v>
+      </c>
+      <c r="BH9">
+        <v>60177.05003531677</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>108410.1778110271</v>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="BL9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
